--- a/TripleSequence/nm2AllConds.xlsx
+++ b/TripleSequence/nm2AllConds.xlsx
@@ -346,4343 +346,4343 @@
   <sheetData>
     <row r="1" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B1">
-        <v>223.00733951769641</v>
+        <v>224.8864212263174</v>
       </c>
       <c r="C1">
-        <v>36.592110098334075</v>
+        <v>36.848567171386605</v>
       </c>
     </row>
     <row r="2" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B2">
-        <v>230.87524664046791</v>
+        <v>234.70470730429557</v>
       </c>
       <c r="C2">
-        <v>38.398109643950754</v>
+        <v>38.188498859144659</v>
       </c>
       <c r="J2">
-        <v>220.07</v>
+        <v>237.10689655172416</v>
       </c>
       <c r="K2">
-        <v>197.47407407407405</v>
+        <v>267.24444444444441</v>
       </c>
       <c r="L2">
-        <v>179.95652173913044</v>
+        <v>258.86296296296302</v>
       </c>
       <c r="M2">
-        <v>218.84347826086955</v>
+        <v>251.71363636363631</v>
       </c>
       <c r="N2">
-        <v>180.37777777777779</v>
+        <v>229.7</v>
       </c>
       <c r="O2">
-        <v>199.08888888888885</v>
+        <v>236.01034482758621</v>
       </c>
       <c r="P2">
-        <v>209.92222222222222</v>
+        <v>256.98888888888888</v>
       </c>
       <c r="Q2">
-        <v>174.60540540540541</v>
+        <v>249.88076923076926</v>
       </c>
       <c r="R2">
-        <v>165.23142857142858</v>
+        <v>234.55937500000007</v>
       </c>
       <c r="T2">
-        <v>214.33636363636359</v>
+        <v>232.48</v>
       </c>
       <c r="U2">
-        <v>210.49444444444441</v>
+        <v>248.32777777777775</v>
       </c>
       <c r="V2">
-        <v>247.47857142857143</v>
+        <v>244.30000000000004</v>
       </c>
       <c r="W2">
-        <v>248.53043478260869</v>
+        <v>280.05652173913046</v>
       </c>
       <c r="X2">
-        <v>217.87999999999997</v>
+        <v>250.36666666666665</v>
       </c>
       <c r="Y2">
-        <v>219.91052631578953</v>
+        <v>242.19722222222219</v>
       </c>
       <c r="Z2">
-        <v>236.55714285714279</v>
+        <v>259.25</v>
       </c>
       <c r="AA2">
-        <v>245.58372093023249</v>
+        <v>263.90555555555557</v>
       </c>
       <c r="AB2">
-        <v>236.7161290322581</v>
+        <v>260.89032258064515</v>
       </c>
       <c r="AD2">
-        <v>186.90400000000002</v>
+        <v>197.27241379310345</v>
       </c>
       <c r="AE2">
-        <v>173.69473684210524</v>
+        <v>198.01290322580647</v>
       </c>
       <c r="AF2">
-        <v>173.92941176470586</v>
+        <v>204.23055555555553</v>
       </c>
       <c r="AG2">
-        <v>173.7863636363636</v>
+        <v>195.92</v>
       </c>
       <c r="AH2">
-        <v>164.34827586206896</v>
+        <v>197.30357142857142</v>
       </c>
       <c r="AI2">
-        <v>168.91399999999999</v>
+        <v>201.66249999999994</v>
       </c>
       <c r="AJ2">
-        <v>174.81111111111107</v>
+        <v>205.63529411764705</v>
       </c>
       <c r="AK2">
-        <v>179.45</v>
+        <v>198.36470588235295</v>
       </c>
       <c r="AL2">
-        <v>185.46250000000001</v>
+        <v>206.42580645161289</v>
       </c>
     </row>
     <row r="3" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B3">
-        <v>253.22066981604232</v>
+        <v>257.18860599644444</v>
       </c>
       <c r="C3">
-        <v>43.532388941233542</v>
+        <v>42.634868512940422</v>
       </c>
       <c r="F3">
-        <v>209.16919141289344</v>
+        <v>212.74645990703289</v>
       </c>
       <c r="G3">
-        <v>26.320416328505146</v>
+        <v>27.257311356195455</v>
       </c>
       <c r="J3">
-        <v>273.94615384615383</v>
+        <v>220.07</v>
       </c>
       <c r="K3">
-        <v>329.40434782608691</v>
+        <v>197.47407407407405</v>
       </c>
       <c r="L3">
-        <v>325.94545454545454</v>
+        <v>179.95652173913044</v>
       </c>
       <c r="M3">
-        <v>363.88</v>
+        <v>218.84347826086955</v>
       </c>
       <c r="N3">
-        <v>240.56000000000003</v>
+        <v>180.37777777777779</v>
       </c>
       <c r="O3">
-        <v>317.05925925925919</v>
+        <v>199.08888888888885</v>
       </c>
       <c r="P3">
-        <v>395.70000000000005</v>
+        <v>209.92222222222222</v>
       </c>
       <c r="Q3">
-        <v>321.86785714285725</v>
+        <v>174.60540540540541</v>
       </c>
       <c r="R3">
-        <v>311.66470588235291</v>
+        <v>165.23142857142858</v>
       </c>
       <c r="T3">
-        <v>300.49599999999998</v>
+        <v>214.33636363636359</v>
       </c>
       <c r="U3">
-        <v>287.17727272727268</v>
+        <v>210.49444444444441</v>
       </c>
       <c r="V3">
-        <v>287.81111111111107</v>
+        <v>247.47857142857143</v>
       </c>
       <c r="W3">
-        <v>342.19600000000008</v>
+        <v>248.53043478260869</v>
       </c>
       <c r="X3">
-        <v>287.59411764705885</v>
+        <v>217.87999999999997</v>
       </c>
       <c r="Y3">
-        <v>304.36285714285714</v>
+        <v>219.91052631578953</v>
       </c>
       <c r="Z3">
-        <v>364.03750000000002</v>
+        <v>236.55714285714279</v>
       </c>
       <c r="AA3">
-        <v>323.89565217391305</v>
+        <v>245.58372093023249</v>
       </c>
       <c r="AB3">
-        <v>317.9588235294118</v>
+        <v>236.7161290322581</v>
       </c>
       <c r="AD3">
-        <v>240.22765957446805</v>
+        <v>186.90400000000002</v>
       </c>
       <c r="AE3">
-        <v>253.24166666666659</v>
+        <v>173.69473684210524</v>
       </c>
       <c r="AF3">
-        <v>250.19</v>
+        <v>173.92941176470586</v>
       </c>
       <c r="AG3">
-        <v>238.80714285714285</v>
+        <v>173.7863636363636</v>
       </c>
       <c r="AH3">
-        <v>246.0121212121212</v>
+        <v>164.34827586206896</v>
       </c>
       <c r="AI3">
-        <v>269.28108108108097</v>
+        <v>168.91399999999999</v>
       </c>
       <c r="AJ3">
-        <v>255.97199999999998</v>
+        <v>174.81111111111107</v>
       </c>
       <c r="AK3">
-        <v>251.32916666666674</v>
+        <v>179.45</v>
       </c>
       <c r="AL3">
-        <v>259.22380952380951</v>
+        <v>185.46250000000001</v>
       </c>
     </row>
     <row r="4" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B4">
-        <v>281.38106019524207</v>
+        <v>286.0958277586717</v>
       </c>
       <c r="C4">
-        <v>57.663225504337191</v>
+        <v>57.80802637178369</v>
       </c>
       <c r="F4">
-        <v>239.75950344020214</v>
+        <v>240.91960927954375</v>
       </c>
       <c r="G4">
-        <v>14.937895798623858</v>
+        <v>16.492243881539892</v>
       </c>
       <c r="J4">
-        <v>196.33809523809521</v>
+        <v>273.94615384615383</v>
       </c>
       <c r="K4">
-        <v>193.625</v>
+        <v>329.40434782608691</v>
       </c>
       <c r="L4">
-        <v>199.29166666666663</v>
+        <v>325.94545454545454</v>
       </c>
       <c r="M4">
-        <v>181.04545454545453</v>
+        <v>363.88</v>
       </c>
       <c r="N4">
-        <v>193.01249999999999</v>
+        <v>240.56000000000003</v>
       </c>
       <c r="O4">
-        <v>185.43793103448274</v>
+        <v>317.05925925925919</v>
       </c>
       <c r="P4">
-        <v>199.06</v>
+        <v>395.70000000000005</v>
       </c>
       <c r="Q4">
-        <v>195.6964285714285</v>
+        <v>321.86785714285725</v>
       </c>
       <c r="R4">
-        <v>182.71599999999998</v>
+        <v>311.66470588235291</v>
       </c>
       <c r="T4">
-        <v>263.79999999999995</v>
+        <v>300.49599999999998</v>
       </c>
       <c r="U4">
-        <v>251.59090909090909</v>
+        <v>287.17727272727268</v>
       </c>
       <c r="V4">
-        <v>245.95000000000005</v>
+        <v>287.81111111111107</v>
       </c>
       <c r="W4">
-        <v>243.9375</v>
+        <v>342.19600000000008</v>
       </c>
       <c r="X4">
-        <v>256.14999999999998</v>
+        <v>287.59411764705885</v>
       </c>
       <c r="Y4">
-        <v>264.25185185185188</v>
+        <v>304.36285714285714</v>
       </c>
       <c r="Z4">
-        <v>258.82857142857142</v>
+        <v>364.03750000000002</v>
       </c>
       <c r="AA4">
-        <v>255.22258064516126</v>
+        <v>323.89565217391305</v>
       </c>
       <c r="AB4">
-        <v>254.30000000000004</v>
+        <v>317.9588235294118</v>
       </c>
       <c r="AD4">
-        <v>177.43333333333334</v>
+        <v>240.22765957446805</v>
       </c>
       <c r="AE4">
-        <v>202.66562500000003</v>
+        <v>253.24166666666659</v>
       </c>
       <c r="AF4">
-        <v>190.05999999999997</v>
+        <v>250.19</v>
       </c>
       <c r="AG4">
-        <v>184.31500000000003</v>
+        <v>238.80714285714285</v>
       </c>
       <c r="AH4">
-        <v>178.4028571428571</v>
+        <v>246.0121212121212</v>
       </c>
       <c r="AI4">
-        <v>187.11904761904765</v>
+        <v>269.28108108108097</v>
       </c>
       <c r="AJ4">
-        <v>194.26000000000002</v>
+        <v>255.97199999999998</v>
       </c>
       <c r="AK4">
-        <v>169.15999999999997</v>
+        <v>251.32916666666674</v>
       </c>
       <c r="AL4">
-        <v>208.68400000000005</v>
+        <v>259.22380952380951</v>
       </c>
     </row>
     <row r="5" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B5">
-        <v>216.36160613755996</v>
+        <v>218.42926107022063</v>
       </c>
       <c r="C5">
-        <v>31.775427339277602</v>
+        <v>30.657488636674575</v>
       </c>
       <c r="F5">
-        <v>200.49693306179006</v>
+        <v>202.88056251578374</v>
       </c>
       <c r="G5">
-        <v>21.999825966760259</v>
+        <v>23.820178594412166</v>
       </c>
       <c r="J5">
-        <v>181.36799999999997</v>
+        <v>196.33809523809521</v>
       </c>
       <c r="K5">
-        <v>204.48666666666671</v>
+        <v>193.625</v>
       </c>
       <c r="L5">
-        <v>175.88</v>
+        <v>199.29166666666663</v>
       </c>
       <c r="M5">
-        <v>170.43076923076919</v>
+        <v>181.04545454545453</v>
       </c>
       <c r="N5">
-        <v>178.90909090909093</v>
+        <v>193.01249999999999</v>
       </c>
       <c r="O5">
-        <v>169.36363636363635</v>
+        <v>185.43793103448274</v>
       </c>
       <c r="P5">
-        <v>193.55</v>
+        <v>199.06</v>
       </c>
       <c r="Q5">
-        <v>177.20909090909089</v>
+        <v>195.6964285714285</v>
       </c>
       <c r="R5">
-        <v>172.63999999999996</v>
+        <v>182.71599999999998</v>
       </c>
       <c r="T5">
-        <v>217.9941176470588</v>
+        <v>263.79999999999995</v>
       </c>
       <c r="U5">
-        <v>227.6740740740741</v>
+        <v>251.59090909090909</v>
       </c>
       <c r="V5">
-        <v>236.40588235294115</v>
+        <v>245.95000000000005</v>
       </c>
       <c r="W5">
-        <v>236.66956521739129</v>
+        <v>243.9375</v>
       </c>
       <c r="X5">
-        <v>208.33999999999997</v>
+        <v>256.14999999999998</v>
       </c>
       <c r="Y5">
-        <v>217.49545454545458</v>
+        <v>264.25185185185188</v>
       </c>
       <c r="Z5">
-        <v>230.1</v>
+        <v>258.82857142857142</v>
       </c>
       <c r="AA5">
-        <v>235.23888888888891</v>
+        <v>255.22258064516126</v>
       </c>
       <c r="AB5">
-        <v>235.24444444444441</v>
+        <v>254.30000000000004</v>
       </c>
       <c r="AD5">
-        <v>182.14374999999998</v>
+        <v>177.43333333333334</v>
       </c>
       <c r="AE5">
-        <v>177.25121951219521</v>
+        <v>202.66562500000003</v>
       </c>
       <c r="AF5">
-        <v>166.17291666666665</v>
+        <v>190.05999999999997</v>
       </c>
       <c r="AG5">
-        <v>171.82307692307694</v>
+        <v>184.31500000000003</v>
       </c>
       <c r="AH5">
-        <v>172.16896551724136</v>
+        <v>178.4028571428571</v>
       </c>
       <c r="AI5">
-        <v>165.58275862068967</v>
+        <v>187.11904761904765</v>
       </c>
       <c r="AJ5">
-        <v>167.15357142857144</v>
+        <v>194.26000000000002</v>
       </c>
       <c r="AK5">
-        <v>178.54444444444445</v>
+        <v>169.15999999999997</v>
       </c>
       <c r="AL5">
-        <v>173.92941176470586</v>
+        <v>208.68400000000005</v>
       </c>
     </row>
     <row r="6" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B6">
-        <v>229.75292344948693</v>
+        <v>232.01863604710852</v>
       </c>
       <c r="C6">
-        <v>33.205152686729136</v>
+        <v>32.669728274191911</v>
       </c>
       <c r="F6">
-        <v>272.82217503923567</v>
+        <v>276.8797761323375</v>
       </c>
       <c r="G6">
-        <v>50.174814708426901</v>
+        <v>48.993624633497895</v>
       </c>
       <c r="J6">
-        <v>207.77499999999998</v>
+        <v>181.36799999999997</v>
       </c>
       <c r="K6">
-        <v>227.61999999999998</v>
+        <v>204.48666666666671</v>
       </c>
       <c r="L6">
-        <v>286.10454545454542</v>
+        <v>175.88</v>
       </c>
       <c r="M6">
-        <v>275.86470588235295</v>
+        <v>170.43076923076919</v>
       </c>
       <c r="N6">
-        <v>191.82</v>
+        <v>178.90909090909093</v>
       </c>
       <c r="O6">
-        <v>220.71515151515146</v>
+        <v>169.36363636363635</v>
       </c>
       <c r="P6">
-        <v>318.74166666666667</v>
+        <v>193.55</v>
       </c>
       <c r="Q6">
-        <v>213.7551724137931</v>
+        <v>177.20909090909089</v>
       </c>
       <c r="R6">
-        <v>200.42571428571426</v>
+        <v>172.63999999999996</v>
       </c>
       <c r="T6">
-        <v>263.86874999999998</v>
+        <v>217.9941176470588</v>
       </c>
       <c r="U6">
-        <v>274.6875</v>
+        <v>227.6740740740741</v>
       </c>
       <c r="V6">
-        <v>282.33000000000004</v>
+        <v>236.40588235294115</v>
       </c>
       <c r="W6">
-        <v>272.36</v>
+        <v>236.66956521739129</v>
       </c>
       <c r="X6">
-        <v>265.4375</v>
+        <v>208.33999999999997</v>
       </c>
       <c r="Y6">
-        <v>257.28750000000002</v>
+        <v>217.49545454545458</v>
       </c>
       <c r="Z6">
-        <v>307.93</v>
+        <v>230.1</v>
       </c>
       <c r="AA6">
-        <v>272.76315789473676</v>
+        <v>235.23888888888891</v>
       </c>
       <c r="AB6">
-        <v>271.53142857142865</v>
+        <v>235.24444444444441</v>
       </c>
       <c r="AD6">
-        <v>201.90857142857141</v>
+        <v>182.14374999999998</v>
       </c>
       <c r="AE6">
-        <v>211.22499999999994</v>
+        <v>177.25121951219521</v>
       </c>
       <c r="AF6">
-        <v>206.92558139534881</v>
+        <v>166.17291666666665</v>
       </c>
       <c r="AG6">
-        <v>205.21904761904767</v>
+        <v>171.82307692307694</v>
       </c>
       <c r="AH6">
-        <v>196.40270270270267</v>
+        <v>172.16896551724136</v>
       </c>
       <c r="AI6">
-        <v>215.98510638297876</v>
+        <v>165.58275862068967</v>
       </c>
       <c r="AJ6">
-        <v>211.89999999999998</v>
+        <v>167.15357142857144</v>
       </c>
       <c r="AK6">
-        <v>230.19374999999997</v>
+        <v>178.54444444444445</v>
       </c>
       <c r="AL6">
-        <v>209.74499999999998</v>
+        <v>173.92941176470586</v>
       </c>
     </row>
     <row r="7" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B7">
-        <v>285.76136840728191</v>
+        <v>287.89541362621304</v>
       </c>
       <c r="C7">
-        <v>77.93588079660789</v>
+        <v>74.05073702983286</v>
       </c>
       <c r="F7">
-        <v>229.4744406958115</v>
+        <v>232.13089848762297</v>
       </c>
       <c r="G7">
-        <v>33.759048832193436</v>
+        <v>33.346855545080885</v>
       </c>
       <c r="J7">
-        <v>222.75</v>
+        <v>211.08500000000004</v>
       </c>
       <c r="K7">
-        <v>269.20999999999998</v>
+        <v>250.66363636363639</v>
       </c>
       <c r="L7">
-        <v>253.08333333333334</v>
+        <v>266.87999999999994</v>
       </c>
       <c r="M7">
-        <v>268.10000000000002</v>
+        <v>277.14347826086959</v>
       </c>
       <c r="N7">
-        <v>203.3</v>
+        <v>226.45454545454541</v>
       </c>
       <c r="O7">
-        <v>240.3</v>
+        <v>246.82972972972976</v>
       </c>
       <c r="P7">
-        <v>288.58000000000004</v>
+        <v>270.94285714285712</v>
       </c>
       <c r="Q7">
-        <v>252.8</v>
+        <v>246.00434782608693</v>
       </c>
       <c r="R7">
-        <v>234.95714285714286</v>
+        <v>210.35588235294117</v>
       </c>
       <c r="T7">
-        <v>264.18333333333334</v>
+        <v>251.35882352941178</v>
       </c>
       <c r="U7">
-        <v>246.23636363636368</v>
+        <v>271.92272727272717</v>
       </c>
       <c r="V7">
-        <v>281.07142857142861</v>
+        <v>289.3047619047619</v>
       </c>
       <c r="W7">
-        <v>264.41428571428571</v>
+        <v>298.12142857142857</v>
       </c>
       <c r="X7">
-        <v>257.82499999999999</v>
+        <v>242.76363636363638</v>
       </c>
       <c r="Y7">
-        <v>290.73750000000001</v>
+        <v>258.74594594594595</v>
       </c>
       <c r="Z7">
-        <v>259.60000000000002</v>
+        <v>290.8</v>
       </c>
       <c r="AA7">
-        <v>253.68750000000003</v>
+        <v>279.98214285714283</v>
       </c>
       <c r="AB7">
-        <v>309.61250000000007</v>
+        <v>340.4666666666667</v>
       </c>
       <c r="AD7">
-        <v>240.85454545454547</v>
+        <v>212.96666666666667</v>
       </c>
       <c r="AE7">
-        <v>186.54999999999998</v>
+        <v>211.44838709677418</v>
       </c>
       <c r="AF7">
-        <v>210.81428571428572</v>
+        <v>213.22926829268286</v>
       </c>
       <c r="AG7">
-        <v>192.19999999999996</v>
+        <v>202.25294117647059</v>
       </c>
       <c r="AH7">
-        <v>202.74166666666667</v>
+        <v>222.54750000000004</v>
       </c>
       <c r="AI7">
-        <v>225</v>
+        <v>215.61904761904756</v>
       </c>
       <c r="AJ7">
-        <v>191.11666666666667</v>
+        <v>208.21428571428575</v>
       </c>
       <c r="AK7">
-        <v>212.8</v>
+        <v>221.61199999999997</v>
       </c>
       <c r="AL7">
-        <v>210.24545454545452</v>
+        <v>241.36190476190478</v>
       </c>
     </row>
     <row r="8" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B8">
-        <v>237.34396645777551</v>
+        <v>240.3975456213098</v>
       </c>
       <c r="C8">
-        <v>37.284154636601656</v>
+        <v>36.688269804092698</v>
       </c>
       <c r="F8">
-        <v>226.63123359474591</v>
+        <v>228.95838741496163</v>
       </c>
       <c r="G8">
-        <v>32.770589128879315</v>
+        <v>32.516338345373619</v>
       </c>
       <c r="J8">
-        <v>222.69473684210524</v>
+        <v>207.77499999999998</v>
       </c>
       <c r="K8">
-        <v>227.90526315789467</v>
+        <v>227.61999999999998</v>
       </c>
       <c r="L8">
-        <v>218.20434782608694</v>
+        <v>286.10454545454542</v>
       </c>
       <c r="M8">
-        <v>235.11111111111109</v>
+        <v>275.86470588235295</v>
       </c>
       <c r="N8">
-        <v>223.7166666666667</v>
+        <v>191.82</v>
       </c>
       <c r="O8">
-        <v>228.91071428571428</v>
+        <v>220.71515151515146</v>
       </c>
       <c r="P8">
-        <v>243.27894736842106</v>
+        <v>318.74166666666667</v>
       </c>
       <c r="Q8">
-        <v>216.136</v>
+        <v>213.7551724137931</v>
       </c>
       <c r="R8">
-        <v>212.74062499999991</v>
+        <v>200.42571428571426</v>
       </c>
       <c r="T8">
-        <v>249.31904761904761</v>
+        <v>263.86874999999998</v>
       </c>
       <c r="U8">
-        <v>260.85200000000003</v>
+        <v>274.6875</v>
       </c>
       <c r="V8">
-        <v>254.42500000000001</v>
+        <v>282.33000000000004</v>
       </c>
       <c r="W8">
-        <v>260.51</v>
+        <v>272.36</v>
       </c>
       <c r="X8">
-        <v>256.31111111111113</v>
+        <v>265.4375</v>
       </c>
       <c r="Y8">
-        <v>258.7954545454545</v>
+        <v>257.28750000000002</v>
       </c>
       <c r="Z8">
-        <v>247.38888888888889</v>
+        <v>307.93</v>
       </c>
       <c r="AA8">
-        <v>269.87666666666661</v>
+        <v>272.76315789473676</v>
       </c>
       <c r="AB8">
-        <v>250.17037037037039</v>
+        <v>271.53142857142865</v>
       </c>
       <c r="AD8">
-        <v>202.28571428571433</v>
+        <v>201.90857142857141</v>
       </c>
       <c r="AE8">
-        <v>200.25483870967739</v>
+        <v>211.22499999999994</v>
       </c>
       <c r="AF8">
-        <v>206.84318181818171</v>
+        <v>206.92558139534881</v>
       </c>
       <c r="AG8">
-        <v>212.42999999999998</v>
+        <v>205.21904761904767</v>
       </c>
       <c r="AH8">
-        <v>273.38888888888891</v>
+        <v>196.40270270270267</v>
       </c>
       <c r="AI8">
-        <v>211.7269230769231</v>
+        <v>215.98510638297876</v>
       </c>
       <c r="AJ8">
-        <v>202.92857142857139</v>
+        <v>211.89999999999998</v>
       </c>
       <c r="AK8">
-        <v>213.97241379310344</v>
+        <v>230.19374999999997</v>
       </c>
       <c r="AL8">
-        <v>200.80000000000004</v>
+        <v>209.74499999999998</v>
       </c>
     </row>
     <row r="9" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B9">
-        <v>223.18764830729543</v>
+        <v>225.61087805053313</v>
       </c>
       <c r="C9">
-        <v>38.17046640281022</v>
+        <v>37.305590687605672</v>
       </c>
       <c r="F9">
-        <v>254.73986703335436</v>
+        <v>256.2251370378923</v>
       </c>
       <c r="G9">
-        <v>23.264018252637861</v>
+        <v>24.641688018340311</v>
       </c>
       <c r="J9">
-        <v>253.17777777777778</v>
+        <v>222.75</v>
       </c>
       <c r="K9">
-        <v>262.96666666666664</v>
+        <v>269.20999999999998</v>
       </c>
       <c r="L9">
-        <v>331.91</v>
+        <v>253.08333333333334</v>
       </c>
       <c r="M9">
-        <v>363.64000000000004</v>
+        <v>268.10000000000002</v>
       </c>
       <c r="N9">
-        <v>262.76666666666665</v>
+        <v>203.3</v>
       </c>
       <c r="O9">
-        <v>243.0181818181818</v>
+        <v>240.3</v>
       </c>
       <c r="P9">
-        <v>496.5</v>
+        <v>288.58000000000004</v>
       </c>
       <c r="Q9">
-        <v>277.22222222222223</v>
+        <v>252.8</v>
       </c>
       <c r="R9">
-        <v>274.29230769230776</v>
+        <v>234.95714285714286</v>
       </c>
       <c r="T9">
-        <v>301.3</v>
+        <v>264.18333333333334</v>
       </c>
       <c r="U9">
-        <v>296.95</v>
+        <v>246.23636363636368</v>
       </c>
       <c r="V9">
-        <v>291.48888888888882</v>
+        <v>281.07142857142861</v>
       </c>
       <c r="W9">
-        <v>333.57499999999999</v>
+        <v>264.41428571428571</v>
       </c>
       <c r="X9">
-        <v>310.91666666666669</v>
+        <v>257.82499999999999</v>
       </c>
       <c r="Y9">
-        <v>283.77692307692308</v>
+        <v>290.73750000000001</v>
       </c>
       <c r="Z9">
-        <v>308.40000000000003</v>
+        <v>259.60000000000002</v>
       </c>
       <c r="AA9">
-        <v>291.83076923076925</v>
+        <v>253.68750000000003</v>
       </c>
       <c r="AB9">
-        <v>285.06428571428569</v>
+        <v>309.61250000000007</v>
       </c>
       <c r="AD9">
-        <v>222.37272727272727</v>
+        <v>240.85454545454547</v>
       </c>
       <c r="AE9">
-        <v>228.46923076923079</v>
+        <v>186.54999999999998</v>
       </c>
       <c r="AF9">
-        <v>214.56923076923073</v>
+        <v>210.81428571428572</v>
       </c>
       <c r="AG9">
-        <v>238.27777777777777</v>
+        <v>192.19999999999996</v>
       </c>
       <c r="AH9">
-        <v>224.56666666666669</v>
+        <v>202.74166666666667</v>
       </c>
       <c r="AI9">
-        <v>240.10666666666665</v>
+        <v>225</v>
       </c>
       <c r="AJ9">
-        <v>213.5</v>
+        <v>191.11666666666667</v>
       </c>
       <c r="AK9">
-        <v>265.09999999999997</v>
+        <v>212.8</v>
       </c>
       <c r="AL9">
-        <v>231.35000000000002</v>
+        <v>210.24545454545452</v>
       </c>
     </row>
     <row r="10" spans="2:38" x14ac:dyDescent="0.25">
       <c r="F10">
-        <v>271.52519949546735</v>
+        <v>273.54148774979251</v>
       </c>
       <c r="G10">
-        <v>26.903334203804313</v>
+        <v>28.623238523869599</v>
       </c>
       <c r="J10">
-        <v>270.58000000000004</v>
+        <v>222.69473684210524</v>
       </c>
       <c r="K10">
-        <v>272.17333333333335</v>
+        <v>227.90526315789467</v>
       </c>
       <c r="L10">
-        <v>313.55</v>
+        <v>218.20434782608694</v>
       </c>
       <c r="M10">
-        <v>318.28888888888889</v>
+        <v>235.11111111111109</v>
       </c>
       <c r="N10">
-        <v>275.10588235294125</v>
+        <v>223.7166666666667</v>
       </c>
       <c r="O10">
-        <v>292.74864864864867</v>
+        <v>228.91071428571428</v>
       </c>
       <c r="P10">
-        <v>376.12857142857143</v>
+        <v>243.27894736842106</v>
       </c>
       <c r="Q10">
-        <v>291.0774193548387</v>
+        <v>216.136</v>
       </c>
       <c r="R10">
-        <v>285.01153846153841</v>
+        <v>212.74062499999991</v>
       </c>
       <c r="T10">
-        <v>255.10357142857143</v>
+        <v>249.31904761904761</v>
       </c>
       <c r="U10">
-        <v>266.48888888888888</v>
+        <v>260.85200000000003</v>
       </c>
       <c r="V10">
-        <v>303.54736842105268</v>
+        <v>254.42500000000001</v>
       </c>
       <c r="W10">
-        <v>340.39333333333332</v>
+        <v>260.51</v>
       </c>
       <c r="X10">
-        <v>255.64615384615385</v>
+        <v>256.31111111111113</v>
       </c>
       <c r="Y10">
-        <v>303.94399999999996</v>
+        <v>258.7954545454545</v>
       </c>
       <c r="Z10">
-        <v>333.96</v>
+        <v>247.38888888888889</v>
       </c>
       <c r="AA10">
-        <v>302.58717948717947</v>
+        <v>269.87666666666661</v>
       </c>
       <c r="AB10">
-        <v>297.67179487179482</v>
+        <v>250.17037037037039</v>
       </c>
       <c r="AD10">
-        <v>237.01153846153846</v>
+        <v>202.28571428571433</v>
       </c>
       <c r="AE10">
-        <v>258.22380952380945</v>
+        <v>200.25483870967739</v>
       </c>
       <c r="AF10">
-        <v>258.2705882352941</v>
+        <v>206.84318181818171</v>
       </c>
       <c r="AG10">
-        <v>247.52500000000006</v>
+        <v>212.42999999999998</v>
       </c>
       <c r="AH10">
-        <v>230.84418604651165</v>
+        <v>273.38888888888891</v>
       </c>
       <c r="AI10">
-        <v>232.23333333333332</v>
+        <v>211.7269230769231</v>
       </c>
       <c r="AJ10">
-        <v>242.315</v>
+        <v>202.92857142857139</v>
       </c>
       <c r="AK10">
-        <v>261.2652173913043</v>
+        <v>213.97241379310344</v>
       </c>
       <c r="AL10">
-        <v>258.79999999999995</v>
+        <v>200.80000000000004</v>
       </c>
     </row>
     <row r="11" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B11">
-        <v>252.59945689035334</v>
+        <v>253.09961367086598</v>
       </c>
       <c r="C11">
-        <v>29.392435607450523</v>
+        <v>29.975734962112046</v>
       </c>
       <c r="F11">
-        <v>284.18081389337965</v>
+        <v>285.74111481267897</v>
       </c>
       <c r="G11">
-        <v>34.948968801274006</v>
+        <v>34.538018754308979</v>
       </c>
       <c r="J11">
-        <v>212.49375000000001</v>
+        <v>253.17777777777778</v>
       </c>
       <c r="K11">
-        <v>208.01333333333335</v>
+        <v>262.96666666666664</v>
       </c>
       <c r="L11">
-        <v>239.19500000000002</v>
+        <v>331.91</v>
       </c>
       <c r="M11">
-        <v>267.52272727272731</v>
+        <v>363.64000000000004</v>
       </c>
       <c r="N11">
-        <v>200.50000000000003</v>
+        <v>262.76666666666665</v>
       </c>
       <c r="O11">
-        <v>208.42758620689659</v>
+        <v>243.0181818181818</v>
       </c>
       <c r="P11">
-        <v>243.71428571428575</v>
+        <v>496.5</v>
       </c>
       <c r="Q11">
-        <v>195.81714285714287</v>
+        <v>277.22222222222223</v>
       </c>
       <c r="R11">
-        <v>211.1657142857143</v>
+        <v>274.29230769230776</v>
       </c>
       <c r="T11">
-        <v>253.0888888888889</v>
+        <v>301.3</v>
       </c>
       <c r="U11">
-        <v>248.82105263157897</v>
+        <v>296.95</v>
       </c>
       <c r="V11">
-        <v>272.74210526315784</v>
+        <v>291.48888888888882</v>
       </c>
       <c r="W11">
-        <v>365.83157894736837</v>
+        <v>333.57499999999999</v>
       </c>
       <c r="X11">
-        <v>248.63333333333333</v>
+        <v>310.91666666666669</v>
       </c>
       <c r="Y11">
-        <v>304.11851851851856</v>
+        <v>283.77692307692308</v>
       </c>
       <c r="Z11">
-        <v>254.69230769230762</v>
+        <v>308.40000000000003</v>
       </c>
       <c r="AA11">
-        <v>252.48947368421054</v>
+        <v>291.83076923076925</v>
       </c>
       <c r="AB11">
-        <v>265.36111111111114</v>
+        <v>285.06428571428569</v>
       </c>
       <c r="AD11">
-        <v>195.55806451612904</v>
+        <v>222.37272727272727</v>
       </c>
       <c r="AE11">
-        <v>189.43947368421058</v>
+        <v>228.46923076923079</v>
       </c>
       <c r="AF11">
-        <v>244.67608695652174</v>
+        <v>214.56923076923073</v>
       </c>
       <c r="AG11">
-        <v>189.8857142857143</v>
+        <v>238.27777777777777</v>
       </c>
       <c r="AH11">
-        <v>203.05185185185184</v>
+        <v>224.56666666666669</v>
       </c>
       <c r="AI11">
-        <v>192.04250000000005</v>
+        <v>240.10666666666665</v>
       </c>
       <c r="AJ11">
-        <v>203.17500000000001</v>
+        <v>213.5</v>
       </c>
       <c r="AK11">
-        <v>206.6</v>
+        <v>265.09999999999997</v>
       </c>
       <c r="AL11">
-        <v>199.57500000000002</v>
+        <v>231.35000000000002</v>
       </c>
     </row>
     <row r="12" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B12">
-        <v>260.44369798345707</v>
+        <v>262.42835070096885</v>
       </c>
       <c r="C12">
-        <v>27.736976933402048</v>
+        <v>28.344293756802436</v>
       </c>
       <c r="F12">
-        <v>208.59172166725449</v>
+        <v>211.48183693069859</v>
       </c>
       <c r="G12">
-        <v>23.53272242148088</v>
+        <v>26.48024097243545</v>
       </c>
       <c r="J12">
-        <v>194.03333333333333</v>
+        <v>270.58000000000004</v>
       </c>
       <c r="K12">
-        <v>211.37142857142857</v>
+        <v>272.17333333333335</v>
       </c>
       <c r="L12">
-        <v>269.02</v>
+        <v>313.55</v>
       </c>
       <c r="M12">
-        <v>238.86250000000001</v>
+        <v>318.28888888888889</v>
       </c>
       <c r="N12">
-        <v>229.55</v>
+        <v>275.10588235294125</v>
       </c>
       <c r="O12">
-        <v>231.57142857142858</v>
+        <v>292.74864864864867</v>
       </c>
       <c r="P12">
-        <v>370.4</v>
+        <v>376.12857142857143</v>
       </c>
       <c r="Q12">
-        <v>186.65625</v>
+        <v>291.0774193548387</v>
       </c>
       <c r="R12">
-        <v>197.83999999999997</v>
+        <v>285.01153846153841</v>
       </c>
       <c r="T12">
-        <v>254.65714285714287</v>
+        <v>255.10357142857143</v>
       </c>
       <c r="U12">
-        <v>235.47499999999999</v>
+        <v>266.48888888888888</v>
       </c>
       <c r="V12">
-        <v>229.67500000000001</v>
+        <v>303.54736842105268</v>
       </c>
       <c r="W12">
-        <v>252.51250000000002</v>
+        <v>340.39333333333332</v>
       </c>
       <c r="X12">
-        <v>258.09999999999997</v>
+        <v>255.64615384615385</v>
       </c>
       <c r="Y12">
-        <v>250.98235294117652</v>
+        <v>303.94399999999996</v>
       </c>
       <c r="Z12">
-        <v>256.08333333333331</v>
+        <v>333.96</v>
       </c>
       <c r="AA12">
-        <v>248.24615384615385</v>
+        <v>302.58717948717947</v>
       </c>
       <c r="AB12">
-        <v>242.94615384615383</v>
+        <v>297.67179487179482</v>
       </c>
       <c r="AD12">
-        <v>172.85</v>
+        <v>237.01153846153846</v>
       </c>
       <c r="AE12">
-        <v>190.4</v>
+        <v>258.22380952380945</v>
       </c>
       <c r="AF12">
-        <v>177.01000000000002</v>
+        <v>258.2705882352941</v>
       </c>
       <c r="AG12">
-        <v>187.96666666666667</v>
+        <v>247.52500000000006</v>
       </c>
       <c r="AH12">
-        <v>168.20625000000001</v>
+        <v>230.84418604651165</v>
       </c>
       <c r="AI12">
-        <v>184.33000000000004</v>
+        <v>232.23333333333332</v>
       </c>
       <c r="AJ12">
-        <v>173.64444444444445</v>
+        <v>242.315</v>
       </c>
       <c r="AK12">
-        <v>170.9</v>
+        <v>261.2652173913043</v>
       </c>
       <c r="AL12">
-        <v>202.61111111111111</v>
+        <v>258.79999999999995</v>
       </c>
     </row>
     <row r="13" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B13">
-        <v>272.25003829164285</v>
+        <v>274.1337577943587</v>
       </c>
       <c r="C13">
-        <v>36.587252757416643</v>
+        <v>36.577585805200805</v>
       </c>
       <c r="F13">
-        <v>203.4006966058154</v>
+        <v>205.37793833163119</v>
       </c>
       <c r="G13">
-        <v>22.106871029227012</v>
+        <v>22.895933913442811</v>
       </c>
       <c r="J13">
-        <v>232.62941176470591</v>
+        <v>212.49375000000001</v>
       </c>
       <c r="K13">
-        <v>296.74545454545449</v>
+        <v>208.01333333333335</v>
       </c>
       <c r="L13">
-        <v>299.49411764705883</v>
+        <v>239.19500000000002</v>
       </c>
       <c r="M13">
-        <v>335.54516129032271</v>
+        <v>267.52272727272731</v>
       </c>
       <c r="N13">
-        <v>233.47000000000003</v>
+        <v>200.50000000000003</v>
       </c>
       <c r="O13">
-        <v>237.24750000000003</v>
+        <v>208.42758620689659</v>
       </c>
       <c r="P13">
-        <v>411.96000000000004</v>
+        <v>243.71428571428575</v>
       </c>
       <c r="Q13">
-        <v>263.86</v>
+        <v>195.81714285714287</v>
       </c>
       <c r="R13">
-        <v>275.55862068965524</v>
+        <v>211.1657142857143</v>
       </c>
       <c r="T13">
-        <v>270.08636363636361</v>
+        <v>253.0888888888889</v>
       </c>
       <c r="U13">
-        <v>274.50666666666672</v>
+        <v>248.82105263157897</v>
       </c>
       <c r="V13">
-        <v>290.65500000000003</v>
+        <v>272.74210526315784</v>
       </c>
       <c r="W13">
-        <v>354.44285714285712</v>
+        <v>365.83157894736837</v>
       </c>
       <c r="X13">
-        <v>237.82142857142858</v>
+        <v>248.63333333333333</v>
       </c>
       <c r="Y13">
-        <v>305.83</v>
+        <v>304.11851851851856</v>
       </c>
       <c r="Z13">
-        <v>373.86923076923085</v>
+        <v>254.69230769230762</v>
       </c>
       <c r="AA13">
-        <v>348.41874999999999</v>
+        <v>252.48947368421054</v>
       </c>
       <c r="AB13">
-        <v>297.79393939393941</v>
+        <v>265.36111111111114</v>
       </c>
       <c r="AD13">
-        <v>229.61470588235295</v>
+        <v>195.55806451612904</v>
       </c>
       <c r="AE13">
-        <v>216.51562500000003</v>
+        <v>189.43947368421058</v>
       </c>
       <c r="AF13">
-        <v>219.8125</v>
+        <v>244.67608695652174</v>
       </c>
       <c r="AG13">
-        <v>215.68333333333337</v>
+        <v>189.8857142857143</v>
       </c>
       <c r="AH13">
-        <v>224.5</v>
+        <v>203.05185185185184</v>
       </c>
       <c r="AI13">
-        <v>231.06739130434784</v>
+        <v>192.04250000000005</v>
       </c>
       <c r="AJ13">
-        <v>265.31153846153842</v>
+        <v>203.17500000000001</v>
       </c>
       <c r="AK13">
-        <v>254.85555555555558</v>
+        <v>206.6</v>
       </c>
       <c r="AL13">
-        <v>224.32857142857139</v>
+        <v>199.57500000000002</v>
       </c>
     </row>
     <row r="14" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B14">
-        <v>292.48494620620221</v>
+        <v>294.22931240247664</v>
       </c>
       <c r="C14">
-        <v>39.836713219595651</v>
+        <v>38.933188137011534</v>
       </c>
       <c r="F14">
-        <v>207.80258820206112</v>
+        <v>210.545726962142</v>
       </c>
       <c r="G14">
-        <v>23.792517270610798</v>
+        <v>25.679276745332395</v>
       </c>
       <c r="J14">
-        <v>212.46666666666667</v>
+        <v>194.03333333333333</v>
       </c>
       <c r="K14">
-        <v>253.58333333333334</v>
+        <v>211.37142857142857</v>
       </c>
       <c r="L14">
-        <v>283.76666666666665</v>
+        <v>269.02</v>
       </c>
       <c r="M14">
-        <v>264.2</v>
+        <v>238.86250000000001</v>
       </c>
       <c r="N14">
-        <v>231.65</v>
+        <v>229.55</v>
       </c>
       <c r="O14">
-        <v>267.81428571428575</v>
+        <v>231.57142857142858</v>
       </c>
       <c r="P14">
-        <v>230.3</v>
+        <v>370.4</v>
       </c>
       <c r="Q14">
-        <v>245.80909090909097</v>
+        <v>186.65625</v>
       </c>
       <c r="R14">
-        <v>243.1615384615385</v>
+        <v>197.83999999999997</v>
       </c>
       <c r="T14">
-        <v>229.98749999999998</v>
+        <v>254.65714285714287</v>
       </c>
       <c r="U14">
-        <v>314.17500000000001</v>
+        <v>235.47499999999999</v>
       </c>
       <c r="V14">
-        <v>374.9666666666667</v>
+        <v>229.67500000000001</v>
       </c>
       <c r="W14">
-        <v>288.8</v>
+        <v>252.51250000000002</v>
       </c>
       <c r="X14">
-        <v>316.98333333333335</v>
+        <v>258.09999999999997</v>
       </c>
       <c r="Y14">
-        <v>287.82499999999999</v>
+        <v>250.98235294117652</v>
       </c>
       <c r="Z14">
-        <v>527.33333333333337</v>
+        <v>256.08333333333331</v>
       </c>
       <c r="AA14">
-        <v>330.27272727272725</v>
+        <v>248.24615384615385</v>
       </c>
       <c r="AB14">
-        <v>301.47142857142859</v>
+        <v>242.94615384615383</v>
       </c>
       <c r="AD14">
-        <v>240.59999999999994</v>
+        <v>172.85</v>
       </c>
       <c r="AE14">
-        <v>212.78461538461536</v>
+        <v>190.4</v>
       </c>
       <c r="AF14">
-        <v>266.14375000000001</v>
+        <v>177.01000000000002</v>
       </c>
       <c r="AG14">
-        <v>346.68</v>
+        <v>187.96666666666667</v>
       </c>
       <c r="AH14">
-        <v>209.16250000000002</v>
+        <v>168.20625000000001</v>
       </c>
       <c r="AI14">
-        <v>217.76428571428573</v>
+        <v>184.33000000000004</v>
       </c>
       <c r="AJ14">
-        <v>203.26249999999999</v>
+        <v>173.64444444444445</v>
       </c>
       <c r="AK14">
-        <v>222.05</v>
+        <v>170.9</v>
       </c>
       <c r="AL14">
-        <v>241.75</v>
+        <v>202.61111111111111</v>
       </c>
     </row>
     <row r="15" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B15">
-        <v>245.82348409900089</v>
+        <v>247.14741255598975</v>
       </c>
       <c r="C15">
-        <v>25.627809190958775</v>
+        <v>26.302143849598245</v>
       </c>
       <c r="J15">
-        <v>242.41249999999999</v>
+        <v>232.62941176470591</v>
       </c>
       <c r="K15">
-        <v>254.03333333333336</v>
+        <v>296.74545454545449</v>
       </c>
       <c r="L15">
-        <v>253.35384615384615</v>
+        <v>299.49411764705883</v>
       </c>
       <c r="M15">
-        <v>295.2</v>
+        <v>335.54516129032271</v>
       </c>
       <c r="N15">
-        <v>252.5333333333333</v>
+        <v>233.47000000000003</v>
       </c>
       <c r="O15">
-        <v>223.76666666666668</v>
+        <v>237.24750000000003</v>
       </c>
       <c r="P15">
-        <v>281.66666666666669</v>
+        <v>411.96000000000004</v>
       </c>
       <c r="Q15">
-        <v>218.22500000000002</v>
+        <v>263.86</v>
       </c>
       <c r="R15">
-        <v>214.56428571428572</v>
+        <v>275.55862068965524</v>
       </c>
       <c r="T15">
-        <v>251.5</v>
+        <v>270.08636363636361</v>
       </c>
       <c r="U15">
-        <v>317.54999999999995</v>
+        <v>274.50666666666672</v>
       </c>
       <c r="V15">
-        <v>269.43999999999994</v>
+        <v>290.65500000000003</v>
       </c>
       <c r="W15">
-        <v>297.92222222222222</v>
+        <v>354.44285714285712</v>
       </c>
       <c r="X15">
-        <v>227.4</v>
+        <v>237.82142857142858</v>
       </c>
       <c r="Y15">
-        <v>252.46875</v>
+        <v>305.83</v>
       </c>
       <c r="Z15">
-        <v>325.5</v>
+        <v>373.86923076923085</v>
       </c>
       <c r="AA15">
-        <v>258.38</v>
+        <v>348.41874999999999</v>
       </c>
       <c r="AB15">
-        <v>270.83333333333337</v>
+        <v>297.79393939393941</v>
       </c>
       <c r="AD15">
-        <v>206.79285714285712</v>
+        <v>229.61470588235295</v>
       </c>
       <c r="AE15">
-        <v>209.46666666666664</v>
+        <v>216.51562500000003</v>
       </c>
       <c r="AF15">
-        <v>190.10833333333335</v>
+        <v>219.8125</v>
       </c>
       <c r="AG15">
-        <v>186.17777777777775</v>
+        <v>215.68333333333337</v>
       </c>
       <c r="AH15">
-        <v>212.31578947368422</v>
+        <v>224.5</v>
       </c>
       <c r="AI15">
-        <v>216.33636363636361</v>
+        <v>231.06739130434784</v>
       </c>
       <c r="AJ15">
-        <v>186.13750000000002</v>
+        <v>265.31153846153842</v>
       </c>
       <c r="AK15">
-        <v>198.08571428571426</v>
+        <v>254.85555555555558</v>
       </c>
       <c r="AL15">
-        <v>197.58571428571426</v>
+        <v>224.32857142857139</v>
       </c>
     </row>
     <row r="16" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B16">
-        <v>262.28047765058358</v>
+        <v>263.27032663972074</v>
       </c>
       <c r="C16">
-        <v>32.94182100217153</v>
+        <v>33.810446017259792</v>
       </c>
       <c r="J16">
-        <v>203.18214285714288</v>
+        <v>212.46666666666667</v>
       </c>
       <c r="K16">
-        <v>232.8095238095238</v>
+        <v>253.58333333333334</v>
       </c>
       <c r="L16">
-        <v>364.44999999999993</v>
+        <v>283.76666666666665</v>
       </c>
       <c r="M16">
-        <v>382.78500000000003</v>
+        <v>264.2</v>
       </c>
       <c r="N16">
-        <v>219.53636363636363</v>
+        <v>231.65</v>
       </c>
       <c r="O16">
-        <v>217.66744186046509</v>
+        <v>267.81428571428575</v>
       </c>
       <c r="P16">
-        <v>444.18</v>
+        <v>230.3</v>
       </c>
       <c r="Q16">
-        <v>259.59393939393942</v>
+        <v>245.80909090909097</v>
       </c>
       <c r="R16">
-        <v>209.08888888888882</v>
+        <v>243.1615384615385</v>
       </c>
       <c r="T16">
-        <v>247.57500000000002</v>
+        <v>229.98749999999998</v>
       </c>
       <c r="U16">
-        <v>274.39999999999998</v>
+        <v>314.17500000000001</v>
       </c>
       <c r="V16">
-        <v>335.69545454545454</v>
+        <v>374.9666666666667</v>
       </c>
       <c r="W16">
-        <v>374.74761904761903</v>
+        <v>288.8</v>
       </c>
       <c r="X16">
-        <v>228.71999999999997</v>
+        <v>316.98333333333335</v>
       </c>
       <c r="Y16">
-        <v>256.77931034482754</v>
+        <v>287.82499999999999</v>
       </c>
       <c r="Z16">
-        <v>397.21428571428572</v>
+        <v>527.33333333333337</v>
       </c>
       <c r="AA16">
-        <v>331.18275862068975</v>
+        <v>330.27272727272725</v>
       </c>
       <c r="AB16">
-        <v>311.1052631578948</v>
+        <v>301.47142857142859</v>
       </c>
       <c r="AD16">
-        <v>186.42333333333335</v>
+        <v>240.59999999999994</v>
       </c>
       <c r="AE16">
-        <v>214.06666666666669</v>
+        <v>212.78461538461536</v>
       </c>
       <c r="AF16">
-        <v>197.97547169811315</v>
+        <v>266.14375000000001</v>
       </c>
       <c r="AG16">
-        <v>198.69500000000002</v>
+        <v>346.68</v>
       </c>
       <c r="AH16">
-        <v>189.72058823529412</v>
+        <v>209.16250000000002</v>
       </c>
       <c r="AI16">
-        <v>194.34130434782611</v>
+        <v>217.76428571428573</v>
       </c>
       <c r="AJ16">
-        <v>202.52307692307693</v>
+        <v>203.26249999999999</v>
       </c>
       <c r="AK16">
-        <v>218.03181818181812</v>
+        <v>222.05</v>
       </c>
       <c r="AL16">
-        <v>230.0588235294118</v>
+        <v>241.75</v>
       </c>
     </row>
     <row r="17" spans="2:38" x14ac:dyDescent="0.25">
       <c r="J17">
-        <v>214.29000000000002</v>
+        <v>242.41249999999999</v>
       </c>
       <c r="K17">
-        <v>252.68499999999995</v>
+        <v>254.03333333333336</v>
       </c>
       <c r="L17">
-        <v>252.08999999999997</v>
+        <v>253.35384615384615</v>
       </c>
       <c r="M17">
-        <v>323.58000000000004</v>
+        <v>295.2</v>
       </c>
       <c r="N17">
-        <v>194.94285714285712</v>
+        <v>252.5333333333333</v>
       </c>
       <c r="O17">
-        <v>259.90357142857141</v>
+        <v>223.76666666666668</v>
       </c>
       <c r="P17">
-        <v>326.10769230769228</v>
+        <v>281.66666666666669</v>
       </c>
       <c r="Q17">
-        <v>264.96071428571429</v>
+        <v>218.22500000000002</v>
       </c>
       <c r="R17">
-        <v>251.48000000000008</v>
+        <v>214.56428571428572</v>
       </c>
       <c r="T17">
-        <v>243.79285714285717</v>
+        <v>251.5</v>
       </c>
       <c r="U17">
-        <v>257.66666666666669</v>
+        <v>317.54999999999995</v>
       </c>
       <c r="V17">
-        <v>260.5333333333333</v>
+        <v>269.43999999999994</v>
       </c>
       <c r="W17">
-        <v>283.66399999999999</v>
+        <v>297.92222222222222</v>
       </c>
       <c r="X17">
-        <v>231.73000000000002</v>
+        <v>227.4</v>
       </c>
       <c r="Y17">
-        <v>254.02249999999998</v>
+        <v>252.46875</v>
       </c>
       <c r="Z17">
-        <v>283.36666666666667</v>
+        <v>325.5</v>
       </c>
       <c r="AA17">
-        <v>253.68125000000009</v>
+        <v>258.38</v>
       </c>
       <c r="AB17">
-        <v>252.90277777777777</v>
+        <v>270.83333333333337</v>
       </c>
       <c r="AD17">
-        <v>201.05405405405401</v>
+        <v>206.79285714285712</v>
       </c>
       <c r="AE17">
-        <v>189.86774193548391</v>
+        <v>209.46666666666664</v>
       </c>
       <c r="AF17">
-        <v>200.47941176470587</v>
+        <v>190.10833333333335</v>
       </c>
       <c r="AG17">
-        <v>199.69374999999999</v>
+        <v>186.17777777777775</v>
       </c>
       <c r="AH17">
-        <v>205.28250000000008</v>
+        <v>212.31578947368422</v>
       </c>
       <c r="AI17">
-        <v>207.768</v>
+        <v>216.33636363636361</v>
       </c>
       <c r="AJ17">
-        <v>217.04545454545453</v>
+        <v>186.13750000000002</v>
       </c>
       <c r="AK17">
-        <v>210.96071428571432</v>
+        <v>198.08571428571426</v>
       </c>
       <c r="AL17">
-        <v>198.40416666666661</v>
+        <v>197.58571428571426</v>
       </c>
     </row>
     <row r="18" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B18">
-        <v>278.6973968450792</v>
+        <v>280.20453969976177</v>
       </c>
       <c r="C18">
-        <v>32.983730237931574</v>
+        <v>33.623857827653801</v>
       </c>
       <c r="J18">
-        <v>165.97894736842102</v>
+        <v>203.18214285714288</v>
       </c>
       <c r="K18">
-        <v>157.35000000000002</v>
+        <v>232.8095238095238</v>
       </c>
       <c r="L18">
-        <v>203.61875000000001</v>
+        <v>364.44999999999993</v>
       </c>
       <c r="M18">
-        <v>199.9689655172414</v>
+        <v>382.78500000000003</v>
       </c>
       <c r="N18">
-        <v>162.94545454545454</v>
+        <v>219.53636363636363</v>
       </c>
       <c r="O18">
-        <v>160.19199999999998</v>
+        <v>217.66744186046509</v>
       </c>
       <c r="P18">
-        <v>194.88888888888886</v>
+        <v>444.18</v>
       </c>
       <c r="Q18">
-        <v>189.8608695652174</v>
+        <v>259.59393939393942</v>
       </c>
       <c r="R18">
-        <v>152.94000000000005</v>
+        <v>209.08888888888882</v>
       </c>
       <c r="T18">
-        <v>194.61</v>
+        <v>247.57500000000002</v>
       </c>
       <c r="U18">
-        <v>212.61071428571427</v>
+        <v>274.39999999999998</v>
       </c>
       <c r="V18">
-        <v>197.14000000000004</v>
+        <v>335.69545454545454</v>
       </c>
       <c r="W18">
-        <v>210.34285714285713</v>
+        <v>374.74761904761903</v>
       </c>
       <c r="X18">
-        <v>205.48571428571427</v>
+        <v>228.71999999999997</v>
       </c>
       <c r="Y18">
-        <v>201.84571428571425</v>
+        <v>256.77931034482754</v>
       </c>
       <c r="Z18">
-        <v>210.89411764705883</v>
+        <v>397.21428571428572</v>
       </c>
       <c r="AA18">
-        <v>283.41249999999991</v>
+        <v>331.18275862068975</v>
       </c>
       <c r="AB18">
-        <v>230.00000000000003</v>
+        <v>311.1052631578948</v>
       </c>
       <c r="AD18">
-        <v>149.25666666666669</v>
+        <v>186.42333333333335</v>
       </c>
       <c r="AE18">
-        <v>155.58000000000001</v>
+        <v>214.06666666666669</v>
       </c>
       <c r="AF18">
-        <v>162.672</v>
+        <v>197.97547169811315</v>
       </c>
       <c r="AG18">
-        <v>155.95416666666665</v>
+        <v>198.69500000000002</v>
       </c>
       <c r="AH18">
-        <v>154.04090909090908</v>
+        <v>189.72058823529412</v>
       </c>
       <c r="AI18">
-        <v>165.78235294117644</v>
+        <v>194.34130434782611</v>
       </c>
       <c r="AJ18">
-        <v>160.98636363636362</v>
+        <v>202.52307692307693</v>
       </c>
       <c r="AK18">
-        <v>153.74761904761905</v>
+        <v>218.03181818181812</v>
       </c>
       <c r="AL18">
-        <v>156.4478260869565</v>
+        <v>230.0588235294118</v>
       </c>
     </row>
     <row r="19" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B19">
-        <v>273.20268094593416</v>
+        <v>276.78050375725576</v>
       </c>
       <c r="C19">
-        <v>32.836045922993108</v>
+        <v>34.737770233389448</v>
       </c>
       <c r="J19">
-        <v>189.37500000000003</v>
+        <v>214.29000000000002</v>
       </c>
       <c r="K19">
-        <v>185.21764705882356</v>
+        <v>252.68499999999995</v>
       </c>
       <c r="L19">
-        <v>247.73333333333329</v>
+        <v>252.08999999999997</v>
       </c>
       <c r="M19">
-        <v>258.3095238095238</v>
+        <v>323.58000000000004</v>
       </c>
       <c r="N19">
-        <v>193.69999999999996</v>
+        <v>194.94285714285712</v>
       </c>
       <c r="O19">
-        <v>193.3119047619048</v>
+        <v>259.90357142857141</v>
       </c>
       <c r="P19">
-        <v>195.95555555555555</v>
+        <v>326.10769230769228</v>
       </c>
       <c r="Q19">
-        <v>207.12564102564104</v>
+        <v>264.96071428571429</v>
       </c>
       <c r="R19">
-        <v>177.67727272727274</v>
+        <v>251.48000000000008</v>
       </c>
       <c r="T19">
-        <v>224.17368421052632</v>
+        <v>243.79285714285717</v>
       </c>
       <c r="U19">
-        <v>228.14210526315793</v>
+        <v>257.66666666666669</v>
       </c>
       <c r="V19">
-        <v>220.57222222222222</v>
+        <v>260.5333333333333</v>
       </c>
       <c r="W19">
-        <v>279.75714285714287</v>
+        <v>283.66399999999999</v>
       </c>
       <c r="X19">
-        <v>219.46363636363637</v>
+        <v>231.73000000000002</v>
       </c>
       <c r="Y19">
-        <v>220.03333333333333</v>
+        <v>254.02249999999998</v>
       </c>
       <c r="Z19">
-        <v>293.11249999999995</v>
+        <v>283.36666666666667</v>
       </c>
       <c r="AA19">
-        <v>243.70333333333332</v>
+        <v>253.68125000000009</v>
       </c>
       <c r="AB19">
-        <v>232.06666666666669</v>
+        <v>252.90277777777777</v>
       </c>
       <c r="AD19">
-        <v>173.63157894736841</v>
+        <v>201.05405405405401</v>
       </c>
       <c r="AE19">
-        <v>178.32500000000002</v>
+        <v>189.86774193548391</v>
       </c>
       <c r="AF19">
-        <v>211.37954545454542</v>
+        <v>200.47941176470587</v>
       </c>
       <c r="AG19">
-        <v>173.52380952380952</v>
+        <v>199.69374999999999</v>
       </c>
       <c r="AH19">
-        <v>173.46818181818182</v>
+        <v>205.28250000000008</v>
       </c>
       <c r="AI19">
-        <v>186.32750000000001</v>
+        <v>207.768</v>
       </c>
       <c r="AJ19">
-        <v>192.72499999999999</v>
+        <v>217.04545454545453</v>
       </c>
       <c r="AK19">
-        <v>184.80714285714285</v>
+        <v>210.96071428571432</v>
       </c>
       <c r="AL19">
-        <v>188.52380952380952</v>
+        <v>198.40416666666661</v>
       </c>
     </row>
     <row r="20" spans="2:38" x14ac:dyDescent="0.25">
       <c r="J20">
-        <v>179.98749999999998</v>
+        <v>193.23846153846154</v>
       </c>
       <c r="K20">
-        <v>188.04000000000002</v>
+        <v>244.65499999999997</v>
       </c>
       <c r="L20">
-        <v>232.22857142857146</v>
+        <v>293.94</v>
       </c>
       <c r="M20">
-        <v>214.52499999999998</v>
+        <v>361.35555555555561</v>
       </c>
       <c r="N20">
-        <v>167.66000000000003</v>
+        <v>217.41111111111113</v>
       </c>
       <c r="O20">
-        <v>230.64444444444447</v>
+        <v>215.71111111111114</v>
       </c>
       <c r="P20">
-        <v>229.07999999999998</v>
+        <v>349.42857142857139</v>
       </c>
       <c r="Q20">
-        <v>187.52307692307693</v>
+        <v>242.00357142857141</v>
       </c>
       <c r="R20">
-        <v>171.16874999999996</v>
+        <v>226.25217391304344</v>
       </c>
       <c r="T20">
-        <v>236.60833333333335</v>
+        <v>243.7</v>
       </c>
       <c r="U20">
-        <v>225.08571428571426</v>
+        <v>261.82777777777778</v>
       </c>
       <c r="V20">
-        <v>240.9</v>
+        <v>266.27368421052637</v>
       </c>
       <c r="W20">
-        <v>274.13</v>
+        <v>277.73999999999995</v>
       </c>
       <c r="X20">
-        <v>217.58</v>
+        <v>231.14285714285714</v>
       </c>
       <c r="Y20">
-        <v>224.69</v>
+        <v>241.95588235294127</v>
       </c>
       <c r="Z20">
-        <v>238.3</v>
+        <v>334.88</v>
       </c>
       <c r="AA20">
-        <v>244.5117647058824</v>
+        <v>270.80333333333334</v>
       </c>
       <c r="AB20">
-        <v>237.70833333333329</v>
+        <v>270.61578947368423</v>
       </c>
       <c r="AD20">
-        <v>160.93636363636361</v>
+        <v>196.56666666666669</v>
       </c>
       <c r="AE20">
-        <v>167.03333333333333</v>
+        <v>204.23243243243246</v>
       </c>
       <c r="AF20">
-        <v>175.82222222222222</v>
+        <v>193.76176470588234</v>
       </c>
       <c r="AG20">
-        <v>168.83749999999998</v>
+        <v>205.32799999999992</v>
       </c>
       <c r="AH20">
-        <v>168.50555555555559</v>
+        <v>192.03999999999996</v>
       </c>
       <c r="AI20">
-        <v>166.4238095238095</v>
+        <v>205.93720930232561</v>
       </c>
       <c r="AJ20">
-        <v>187.82857142857142</v>
+        <v>201.47222222222226</v>
       </c>
       <c r="AK20">
-        <v>178.38750000000002</v>
+        <v>261.25882352941176</v>
       </c>
       <c r="AL20">
-        <v>185.29999999999998</v>
+        <v>215.21875000000003</v>
       </c>
     </row>
     <row r="21" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B21">
-        <v>203.38728439194119</v>
+        <v>205.17394311634757</v>
       </c>
       <c r="C21">
-        <v>24.230927783033369</v>
+        <v>24.398573735415216</v>
       </c>
       <c r="J21">
-        <v>235.34444444444443</v>
+        <v>165.97894736842102</v>
       </c>
       <c r="K21">
-        <v>254.86999999999998</v>
+        <v>157.35000000000002</v>
       </c>
       <c r="L21">
-        <v>262.64615384615382</v>
+        <v>203.61875000000001</v>
       </c>
       <c r="M21">
-        <v>325.61999999999995</v>
+        <v>199.9689655172414</v>
       </c>
       <c r="N21">
-        <v>238.85000000000002</v>
+        <v>162.94545454545454</v>
       </c>
       <c r="O21">
-        <v>285.86666666666667</v>
+        <v>160.19199999999998</v>
       </c>
       <c r="P21">
-        <v>248.82</v>
+        <v>194.88888888888886</v>
       </c>
       <c r="Q21">
-        <v>263.29285714285714</v>
+        <v>189.8608695652174</v>
       </c>
       <c r="R21">
-        <v>249.72857142857151</v>
+        <v>152.94000000000005</v>
       </c>
       <c r="T21">
-        <v>249.32500000000002</v>
+        <v>194.61</v>
       </c>
       <c r="U21">
-        <v>284.18999999999994</v>
+        <v>212.61071428571427</v>
       </c>
       <c r="V21">
-        <v>289.44444444444451</v>
+        <v>197.14000000000004</v>
       </c>
       <c r="W21">
-        <v>291.39090909090913</v>
+        <v>210.34285714285713</v>
       </c>
       <c r="X21">
-        <v>254.04000000000002</v>
+        <v>205.48571428571427</v>
       </c>
       <c r="Y21">
-        <v>272.1357142857143</v>
+        <v>201.84571428571425</v>
       </c>
       <c r="Z21">
-        <v>275.98571428571427</v>
+        <v>210.89411764705883</v>
       </c>
       <c r="AA21">
-        <v>248.94166666666663</v>
+        <v>283.41249999999991</v>
       </c>
       <c r="AB21">
-        <v>284.3</v>
+        <v>230.00000000000003</v>
       </c>
       <c r="AD21">
-        <v>220.35000000000002</v>
+        <v>149.25666666666669</v>
       </c>
       <c r="AE21">
-        <v>229.08421052631576</v>
+        <v>155.58000000000001</v>
       </c>
       <c r="AF21">
-        <v>244.7136363636364</v>
+        <v>162.672</v>
       </c>
       <c r="AG21">
-        <v>236.33333333333334</v>
+        <v>155.95416666666665</v>
       </c>
       <c r="AH21">
-        <v>215.8</v>
+        <v>154.04090909090908</v>
       </c>
       <c r="AI21">
-        <v>245.375</v>
+        <v>165.78235294117644</v>
       </c>
       <c r="AJ21">
-        <v>233.26363636363638</v>
+        <v>160.98636363636362</v>
       </c>
       <c r="AK21">
-        <v>229.47142857142853</v>
+        <v>153.74761904761905</v>
       </c>
       <c r="AL21">
-        <v>216.40588235294118</v>
+        <v>156.4478260869565</v>
       </c>
     </row>
     <row r="22" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B22">
-        <v>205.41221888770758</v>
+        <v>207.49699441704806</v>
       </c>
       <c r="C22">
-        <v>22.577565372939421</v>
+        <v>23.674352250410415</v>
       </c>
       <c r="J22">
-        <v>355.57499999999999</v>
+        <v>189.37500000000003</v>
       </c>
       <c r="K22">
-        <v>174.74</v>
+        <v>185.21764705882356</v>
       </c>
       <c r="L22">
-        <v>255.82499999999999</v>
+        <v>247.73333333333329</v>
       </c>
       <c r="M22">
-        <v>213.31666666666669</v>
+        <v>258.3095238095238</v>
       </c>
       <c r="N22">
-        <v>219.96666666666667</v>
+        <v>193.69999999999996</v>
       </c>
       <c r="O22">
-        <v>203.28333333333339</v>
+        <v>193.3119047619048</v>
       </c>
       <c r="P22">
-        <v>196.5</v>
+        <v>195.95555555555555</v>
       </c>
       <c r="Q22">
-        <v>257.47142857142859</v>
+        <v>207.12564102564104</v>
       </c>
       <c r="R22">
-        <v>207.53999999999996</v>
+        <v>177.67727272727274</v>
       </c>
       <c r="T22">
-        <v>303.10833333333329</v>
+        <v>224.17368421052632</v>
       </c>
       <c r="U22">
-        <v>255.9</v>
+        <v>228.14210526315793</v>
       </c>
       <c r="V22">
-        <v>271.88888888888891</v>
+        <v>220.57222222222222</v>
       </c>
       <c r="W22">
-        <v>279.85555555555555</v>
+        <v>279.75714285714287</v>
       </c>
       <c r="X22">
-        <v>248.9</v>
+        <v>219.46363636363637</v>
       </c>
       <c r="Y22">
-        <v>366.6</v>
+        <v>220.03333333333333</v>
       </c>
       <c r="Z22">
-        <v>381</v>
+        <v>293.11249999999995</v>
       </c>
       <c r="AA22">
-        <v>288.24444444444441</v>
+        <v>243.70333333333332</v>
       </c>
       <c r="AB22">
-        <v>271.21000000000004</v>
+        <v>232.06666666666669</v>
       </c>
       <c r="AD22">
-        <v>195.74705882352941</v>
+        <v>173.63157894736841</v>
       </c>
       <c r="AE22">
-        <v>219.67499999999998</v>
+        <v>178.32500000000002</v>
       </c>
       <c r="AF22">
-        <v>188.75000000000003</v>
+        <v>211.37954545454542</v>
       </c>
       <c r="AG22">
-        <v>197.9</v>
+        <v>173.52380952380952</v>
       </c>
       <c r="AH22">
-        <v>219.41</v>
+        <v>173.46818181818182</v>
       </c>
       <c r="AI22">
-        <v>248.82</v>
+        <v>186.32750000000001</v>
       </c>
       <c r="AJ22">
-        <v>198.27500000000001</v>
+        <v>192.72499999999999</v>
       </c>
       <c r="AK22">
-        <v>194.76250000000002</v>
+        <v>184.80714285714285</v>
       </c>
       <c r="AL22">
-        <v>204.7</v>
+        <v>188.52380952380952</v>
       </c>
     </row>
     <row r="23" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B23">
-        <v>206.87930646631247</v>
+        <v>209.11902608362925</v>
       </c>
       <c r="C23">
-        <v>26.591752562464041</v>
+        <v>28.235391647173291</v>
       </c>
       <c r="J23">
-        <v>211.35555555555553</v>
+        <v>179.98749999999998</v>
       </c>
       <c r="K23">
-        <v>222.27391304347822</v>
+        <v>188.04000000000002</v>
       </c>
       <c r="L23">
-        <v>237.87777777777779</v>
+        <v>232.22857142857146</v>
       </c>
       <c r="M23">
-        <v>287.68636363636364</v>
+        <v>214.52499999999998</v>
       </c>
       <c r="N23">
-        <v>241.06428571428572</v>
+        <v>167.66000000000003</v>
       </c>
       <c r="O23">
-        <v>216.7392857142857</v>
+        <v>230.64444444444447</v>
       </c>
       <c r="P23">
-        <v>336.6</v>
+        <v>229.07999999999998</v>
       </c>
       <c r="Q23">
-        <v>231.03870967741932</v>
+        <v>187.52307692307693</v>
       </c>
       <c r="R23">
-        <v>201.25</v>
+        <v>171.16874999999996</v>
       </c>
       <c r="T23">
-        <v>240.875</v>
+        <v>236.60833333333335</v>
       </c>
       <c r="U23">
-        <v>255.8238095238095</v>
+        <v>225.08571428571426</v>
       </c>
       <c r="V23">
-        <v>322.16666666666669</v>
+        <v>240.9</v>
       </c>
       <c r="W23">
-        <v>279.03809523809531</v>
+        <v>274.13</v>
       </c>
       <c r="X23">
-        <v>276.60000000000002</v>
+        <v>217.58</v>
       </c>
       <c r="Y23">
-        <v>263.51</v>
+        <v>224.69</v>
       </c>
       <c r="Z23">
-        <v>290.72222222222223</v>
+        <v>238.3</v>
       </c>
       <c r="AA23">
-        <v>313.03793103448277</v>
+        <v>244.5117647058824</v>
       </c>
       <c r="AB23">
-        <v>255.33499999999998</v>
+        <v>237.70833333333329</v>
       </c>
       <c r="AD23">
-        <v>220.76388888888886</v>
+        <v>160.93636363636361</v>
       </c>
       <c r="AE23">
-        <v>213.26874999999998</v>
+        <v>167.03333333333333</v>
       </c>
       <c r="AF23">
-        <v>204.64705882352942</v>
+        <v>175.82222222222222</v>
       </c>
       <c r="AG23">
-        <v>203.18749999999997</v>
+        <v>168.83749999999998</v>
       </c>
       <c r="AH23">
-        <v>198.54864864864857</v>
+        <v>168.50555555555559</v>
       </c>
       <c r="AI23">
-        <v>219.49534883720932</v>
+        <v>166.4238095238095</v>
       </c>
       <c r="AJ23">
-        <v>214.37894736842102</v>
+        <v>187.82857142857142</v>
       </c>
       <c r="AK23">
-        <v>217.42666666666668</v>
+        <v>178.38750000000002</v>
       </c>
       <c r="AL23">
-        <v>213.84999999999994</v>
+        <v>185.29999999999998</v>
       </c>
     </row>
     <row r="24" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B24">
-        <v>205.74552663787708</v>
+        <v>208.50558058511757</v>
       </c>
       <c r="C24">
-        <v>34.214952950231194</v>
+        <v>35.321552626012746</v>
       </c>
       <c r="J24">
-        <v>255.35555555555553</v>
+        <v>235.34444444444443</v>
       </c>
       <c r="K24">
-        <v>286.64999999999998</v>
+        <v>254.86999999999998</v>
       </c>
       <c r="L24">
-        <v>252.33076923076925</v>
+        <v>262.64615384615382</v>
       </c>
       <c r="M24">
-        <v>257.42</v>
+        <v>325.61999999999995</v>
       </c>
       <c r="N24">
-        <v>258.71999999999997</v>
+        <v>238.85000000000002</v>
       </c>
       <c r="O24">
-        <v>269.66923076923075</v>
+        <v>285.86666666666667</v>
       </c>
       <c r="P24">
-        <v>294.64999999999998</v>
+        <v>248.82</v>
       </c>
       <c r="Q24">
-        <v>253.77499999999998</v>
+        <v>263.29285714285714</v>
       </c>
       <c r="R24">
-        <v>264.44</v>
+        <v>249.72857142857151</v>
       </c>
       <c r="T24">
-        <v>273.64444444444445</v>
+        <v>249.32500000000002</v>
       </c>
       <c r="U24">
-        <v>293.23333333333335</v>
+        <v>284.18999999999994</v>
       </c>
       <c r="V24">
-        <v>246.6</v>
+        <v>289.44444444444451</v>
       </c>
       <c r="W24">
-        <v>270.55454545454546</v>
+        <v>291.39090909090913</v>
       </c>
       <c r="X24">
-        <v>236.89999999999998</v>
+        <v>254.04000000000002</v>
       </c>
       <c r="Y24">
-        <v>224.01428571428573</v>
+        <v>272.1357142857143</v>
       </c>
       <c r="Z24">
-        <v>265.42857142857144</v>
+        <v>275.98571428571427</v>
       </c>
       <c r="AA24">
-        <v>276.73750000000001</v>
+        <v>248.94166666666663</v>
       </c>
       <c r="AB24">
-        <v>249.10909090909092</v>
+        <v>284.3</v>
       </c>
       <c r="AD24">
-        <v>195.26363636363638</v>
+        <v>220.35000000000002</v>
       </c>
       <c r="AE24">
-        <v>213.62222222222221</v>
+        <v>229.08421052631576</v>
       </c>
       <c r="AF24">
-        <v>206.11538461538456</v>
+        <v>244.7136363636364</v>
       </c>
       <c r="AG24">
-        <v>202.68</v>
+        <v>236.33333333333334</v>
       </c>
       <c r="AH24">
-        <v>202.85833333333335</v>
+        <v>215.8</v>
       </c>
       <c r="AI24">
-        <v>200.7157894736842</v>
+        <v>245.375</v>
       </c>
       <c r="AJ24">
-        <v>218.26250000000002</v>
+        <v>233.26363636363638</v>
       </c>
       <c r="AK24">
-        <v>218.28888888888889</v>
+        <v>229.47142857142853</v>
       </c>
       <c r="AL24">
-        <v>214.9111111111111</v>
+        <v>216.40588235294118</v>
       </c>
     </row>
     <row r="25" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B25">
-        <v>201.11529081991426</v>
+        <v>203.04745970141519</v>
       </c>
       <c r="C25">
-        <v>26.381503708012506</v>
+        <v>26.470439450484061</v>
       </c>
       <c r="J25">
-        <v>191.78421052631577</v>
+        <v>355.57499999999999</v>
       </c>
       <c r="K25">
-        <v>186.28500000000003</v>
+        <v>174.74</v>
       </c>
       <c r="L25">
-        <v>214.88333333333333</v>
+        <v>255.82499999999999</v>
       </c>
       <c r="M25">
-        <v>249.8458333333333</v>
+        <v>213.31666666666669</v>
       </c>
       <c r="N25">
-        <v>163.36363636363637</v>
+        <v>219.96666666666667</v>
       </c>
       <c r="O25">
-        <v>203.81111111111107</v>
+        <v>203.28333333333339</v>
       </c>
       <c r="P25">
-        <v>173.47777777777776</v>
+        <v>196.5</v>
       </c>
       <c r="Q25">
-        <v>203.61304347826083</v>
+        <v>257.47142857142859</v>
       </c>
       <c r="R25">
-        <v>197.03333333333333</v>
+        <v>207.53999999999996</v>
       </c>
       <c r="T25">
-        <v>202.3857142857143</v>
+        <v>303.10833333333329</v>
       </c>
       <c r="U25">
-        <v>212.54210526315791</v>
+        <v>255.9</v>
       </c>
       <c r="V25">
-        <v>230.7684210526316</v>
+        <v>271.88888888888891</v>
       </c>
       <c r="W25">
-        <v>269.76470588235298</v>
+        <v>279.85555555555555</v>
       </c>
       <c r="X25">
-        <v>211.27000000000004</v>
+        <v>248.9</v>
       </c>
       <c r="Y25">
-        <v>216.48571428571427</v>
+        <v>366.6</v>
       </c>
       <c r="Z25">
-        <v>252.1</v>
+        <v>381</v>
       </c>
       <c r="AA25">
-        <v>241.00909090909093</v>
+        <v>288.24444444444441</v>
       </c>
       <c r="AB25">
-        <v>244.58709677419355</v>
+        <v>271.21000000000004</v>
       </c>
       <c r="AD25">
-        <v>182.78571428571425</v>
+        <v>195.74705882352941</v>
       </c>
       <c r="AE25">
-        <v>197.90624999999997</v>
+        <v>219.67499999999998</v>
       </c>
       <c r="AF25">
-        <v>181.06129032258065</v>
+        <v>188.75000000000003</v>
       </c>
       <c r="AG25">
-        <v>176.73999999999998</v>
+        <v>197.9</v>
       </c>
       <c r="AH25">
-        <v>169.20322580645163</v>
+        <v>219.41</v>
       </c>
       <c r="AI25">
-        <v>189.91555555555553</v>
+        <v>248.82</v>
       </c>
       <c r="AJ25">
-        <v>175.03846153846155</v>
+        <v>198.27500000000001</v>
       </c>
       <c r="AK25">
-        <v>188.01250000000002</v>
+        <v>194.76250000000002</v>
       </c>
       <c r="AL25">
-        <v>170.74545454545452</v>
+        <v>204.7</v>
       </c>
     </row>
     <row r="26" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B26">
-        <v>208.24052830984647</v>
+        <v>210.22140545885586</v>
       </c>
       <c r="C26">
-        <v>26.302520833523769</v>
+        <v>27.259823994912349</v>
       </c>
       <c r="J26">
-        <v>233.4</v>
+        <v>211.35555555555553</v>
       </c>
       <c r="K26">
-        <v>236.36315789473682</v>
+        <v>222.27391304347822</v>
       </c>
       <c r="L26">
-        <v>251.64499999999992</v>
+        <v>237.87777777777779</v>
       </c>
       <c r="M26">
-        <v>307.77777777777783</v>
+        <v>287.68636363636364</v>
       </c>
       <c r="N26">
-        <v>231</v>
+        <v>241.06428571428572</v>
       </c>
       <c r="O26">
-        <v>247.5424242424242</v>
+        <v>216.7392857142857</v>
       </c>
       <c r="P26">
-        <v>314.29000000000002</v>
+        <v>336.6</v>
       </c>
       <c r="Q26">
-        <v>255.95757575757577</v>
+        <v>231.03870967741932</v>
       </c>
       <c r="R26">
-        <v>273.44102564102559</v>
+        <v>201.25</v>
       </c>
       <c r="T26">
-        <v>269.26666666666665</v>
+        <v>240.875</v>
       </c>
       <c r="U26">
-        <v>264.52000000000004</v>
+        <v>255.8238095238095</v>
       </c>
       <c r="V26">
-        <v>319.83529411764698</v>
+        <v>322.16666666666669</v>
       </c>
       <c r="W26">
-        <v>299.03333333333336</v>
+        <v>279.03809523809531</v>
       </c>
       <c r="X26">
-        <v>257.3</v>
+        <v>276.60000000000002</v>
       </c>
       <c r="Y26">
-        <v>294.65609756097575</v>
+        <v>263.51</v>
       </c>
       <c r="Z26">
-        <v>320.18</v>
+        <v>290.72222222222223</v>
       </c>
       <c r="AA26">
-        <v>300.92307692307691</v>
+        <v>313.03793103448277</v>
       </c>
       <c r="AB26">
-        <v>294.52105263157898</v>
+        <v>255.33499999999998</v>
       </c>
       <c r="AD26">
-        <v>243.57222222222219</v>
+        <v>220.76388888888886</v>
       </c>
       <c r="AE26">
-        <v>239.35952380952389</v>
+        <v>213.26874999999998</v>
       </c>
       <c r="AF26">
-        <v>238.92999999999992</v>
+        <v>204.64705882352942</v>
       </c>
       <c r="AG26">
-        <v>223.08499999999998</v>
+        <v>203.18749999999997</v>
       </c>
       <c r="AH26">
-        <v>231.72058823529414</v>
+        <v>198.54864864864857</v>
       </c>
       <c r="AI26">
-        <v>229.80344827586208</v>
+        <v>219.49534883720932</v>
       </c>
       <c r="AJ26">
-        <v>231.61500000000001</v>
+        <v>214.37894736842102</v>
       </c>
       <c r="AK26">
-        <v>223.21818181818182</v>
+        <v>217.42666666666668</v>
       </c>
       <c r="AL26">
-        <v>214.60555555555558</v>
+        <v>213.84999999999994</v>
       </c>
     </row>
     <row r="27" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B27">
-        <v>203.36974346066191</v>
+        <v>206.81125729622505</v>
       </c>
       <c r="C27">
-        <v>23.579352444726762</v>
+        <v>28.303637788905458</v>
       </c>
       <c r="J27">
-        <v>188.97999999999996</v>
+        <v>251.31666666666666</v>
       </c>
       <c r="K27">
-        <v>176</v>
+        <v>241.15999999999994</v>
       </c>
       <c r="L27">
-        <v>197.34999999999997</v>
+        <v>289.49200000000002</v>
       </c>
       <c r="M27">
-        <v>316.04444444444448</v>
+        <v>371.56666666666666</v>
       </c>
       <c r="N27">
-        <v>140.16666666666666</v>
+        <v>229.32857142857145</v>
       </c>
       <c r="O27">
-        <v>213.99411764705883</v>
+        <v>254.5</v>
       </c>
       <c r="P27">
-        <v>320.5</v>
+        <v>306.3416666666667</v>
       </c>
       <c r="Q27">
-        <v>242.56666666666666</v>
+        <v>266.57931034482755</v>
       </c>
       <c r="R27">
-        <v>227.03636363636363</v>
+        <v>262.87428571428563</v>
       </c>
       <c r="T27">
-        <v>213.1</v>
+        <v>233.39687499999999</v>
       </c>
       <c r="U27">
-        <v>253.64000000000001</v>
+        <v>268.45789473684204</v>
       </c>
       <c r="V27">
-        <v>238.9</v>
+        <v>291.45862068965516</v>
       </c>
       <c r="W27">
-        <v>319.61</v>
+        <v>319.32142857142856</v>
       </c>
       <c r="X27">
-        <v>216.02499999999998</v>
+        <v>245.09230769230768</v>
       </c>
       <c r="Y27">
-        <v>255.11666666666665</v>
+        <v>262.76756756756748</v>
+      </c>
+      <c r="Z27">
+        <v>336</v>
       </c>
       <c r="AA27">
-        <v>250.01111111111109</v>
+        <v>277.26666666666665</v>
       </c>
       <c r="AB27">
-        <v>236.84444444444449</v>
+        <v>286.06153846153848</v>
       </c>
       <c r="AD27">
-        <v>170.125</v>
+        <v>226.54285714285709</v>
       </c>
       <c r="AE27">
-        <v>176.36153846153846</v>
+        <v>226.97714285714284</v>
       </c>
       <c r="AF27">
-        <v>166.45</v>
+        <v>223.74468085106383</v>
       </c>
       <c r="AG27">
-        <v>166.7</v>
+        <v>241.88148148148153</v>
       </c>
       <c r="AH27">
-        <v>155.57499999999999</v>
+        <v>214.34799999999998</v>
       </c>
       <c r="AI27">
-        <v>166.14444444444447</v>
+        <v>215.04250000000002</v>
       </c>
       <c r="AJ27">
-        <v>188.97499999999999</v>
+        <v>224.81904761904767</v>
       </c>
       <c r="AK27">
-        <v>181.46666666666667</v>
+        <v>226.67222222222225</v>
       </c>
       <c r="AL27">
-        <v>168.05</v>
+        <v>249.88846153846154</v>
       </c>
     </row>
     <row r="28" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B28">
-        <v>209.69562858119488</v>
+        <v>213.5557805641011</v>
       </c>
       <c r="C28">
-        <v>26.270008285483009</v>
+        <v>29.246083236756629</v>
       </c>
       <c r="J28">
-        <v>210.5190476190476</v>
+        <v>255.35555555555553</v>
       </c>
       <c r="K28">
-        <v>243.60454545454547</v>
+        <v>286.64999999999998</v>
       </c>
       <c r="L28">
-        <v>240.01599999999991</v>
+        <v>252.33076923076925</v>
       </c>
       <c r="M28">
-        <v>302.81176470588235</v>
+        <v>257.42</v>
       </c>
       <c r="N28">
-        <v>235.58235294117648</v>
+        <v>258.71999999999997</v>
       </c>
       <c r="O28">
-        <v>232.5272727272727</v>
+        <v>269.66923076923075</v>
       </c>
       <c r="P28">
-        <v>277.18888888888887</v>
+        <v>294.64999999999998</v>
       </c>
       <c r="Q28">
-        <v>251.94374999999999</v>
+        <v>253.77499999999998</v>
       </c>
       <c r="R28">
-        <v>238.42368421052632</v>
+        <v>264.44</v>
       </c>
       <c r="T28">
-        <v>256.77857142857141</v>
+        <v>273.64444444444445</v>
       </c>
       <c r="U28">
-        <v>281.40800000000002</v>
+        <v>293.23333333333335</v>
       </c>
       <c r="V28">
-        <v>275.48124999999999</v>
+        <v>246.6</v>
       </c>
       <c r="W28">
-        <v>270.26956521739123</v>
+        <v>270.55454545454546</v>
       </c>
       <c r="X28">
-        <v>239.92222222222219</v>
+        <v>236.89999999999998</v>
       </c>
       <c r="Y28">
-        <v>252.85</v>
+        <v>224.01428571428573</v>
       </c>
       <c r="Z28">
-        <v>291.29374999999999</v>
+        <v>265.42857142857144</v>
       </c>
       <c r="AA28">
-        <v>274.02307692307693</v>
+        <v>276.73750000000001</v>
       </c>
       <c r="AB28">
-        <v>258.9636363636364</v>
+        <v>249.10909090909092</v>
       </c>
       <c r="AD28">
-        <v>201.64545454545453</v>
+        <v>195.26363636363638</v>
       </c>
       <c r="AE28">
-        <v>205.85428571428571</v>
+        <v>213.62222222222221</v>
       </c>
       <c r="AF28">
-        <v>214.37555555555554</v>
+        <v>206.11538461538456</v>
       </c>
       <c r="AG28">
-        <v>212.78095238095241</v>
+        <v>202.68</v>
       </c>
       <c r="AH28">
-        <v>202.71428571428575</v>
+        <v>202.85833333333335</v>
       </c>
       <c r="AI28">
-        <v>208.92812500000002</v>
+        <v>200.7157894736842</v>
       </c>
       <c r="AJ28">
-        <v>192.39642857142849</v>
+        <v>218.26250000000002</v>
       </c>
       <c r="AK28">
-        <v>218.4388888888889</v>
+        <v>218.28888888888889</v>
       </c>
       <c r="AL28">
-        <v>210.84545454545457</v>
+        <v>214.9111111111111</v>
       </c>
     </row>
     <row r="29" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B29">
-        <v>208.30672920876364</v>
+        <v>211.66468969789625</v>
       </c>
       <c r="C29">
-        <v>23.496020295042761</v>
+        <v>24.899166772318008</v>
       </c>
       <c r="J29">
-        <v>192.18571428571428</v>
+        <v>191.78421052631577</v>
       </c>
       <c r="K29">
-        <v>210.7227272727273</v>
+        <v>186.28500000000003</v>
       </c>
       <c r="L29">
-        <v>217.98611111111106</v>
+        <v>214.88333333333333</v>
       </c>
       <c r="M29">
-        <v>213.78750000000002</v>
+        <v>249.8458333333333</v>
       </c>
       <c r="N29">
-        <v>197.42222222222222</v>
+        <v>163.36363636363637</v>
       </c>
       <c r="O29">
-        <v>203.63750000000005</v>
+        <v>203.81111111111107</v>
       </c>
       <c r="P29">
-        <v>217.25</v>
+        <v>173.47777777777776</v>
       </c>
       <c r="Q29">
-        <v>201.00857142857146</v>
+        <v>203.61304347826083</v>
       </c>
       <c r="R29">
-        <v>187.48205128205129</v>
+        <v>197.03333333333333</v>
       </c>
       <c r="T29">
-        <v>274.71666666666664</v>
+        <v>202.3857142857143</v>
       </c>
       <c r="U29">
-        <v>270.06470588235288</v>
+        <v>212.54210526315791</v>
       </c>
       <c r="V29">
-        <v>252.40999999999997</v>
+        <v>230.7684210526316</v>
       </c>
       <c r="W29">
-        <v>290.86190476190484</v>
+        <v>269.76470588235298</v>
       </c>
       <c r="X29">
-        <v>245.76470588235293</v>
+        <v>211.27000000000004</v>
       </c>
       <c r="Y29">
-        <v>270.01875000000001</v>
+        <v>216.48571428571427</v>
       </c>
       <c r="Z29">
-        <v>270.10624999999999</v>
+        <v>252.1</v>
       </c>
       <c r="AA29">
-        <v>269.52727272727265</v>
+        <v>241.00909090909093</v>
       </c>
       <c r="AB29">
-        <v>261.28857142857146</v>
+        <v>244.58709677419355</v>
       </c>
       <c r="AD29">
-        <v>196.95862068965519</v>
+        <v>182.78571428571425</v>
       </c>
       <c r="AE29">
-        <v>213.9594594594594</v>
+        <v>197.90624999999997</v>
       </c>
       <c r="AF29">
-        <v>197.38571428571436</v>
+        <v>181.06129032258065</v>
       </c>
       <c r="AG29">
-        <v>195.2235294117647</v>
+        <v>176.73999999999998</v>
       </c>
       <c r="AH29">
-        <v>197.09189189189181</v>
+        <v>169.20322580645163</v>
       </c>
       <c r="AI29">
-        <v>195.27600000000007</v>
+        <v>189.91555555555553</v>
       </c>
       <c r="AJ29">
-        <v>184.83333333333331</v>
+        <v>175.03846153846155</v>
       </c>
       <c r="AK29">
-        <v>195.38260869565218</v>
+        <v>188.01250000000002</v>
       </c>
       <c r="AL29">
-        <v>202.12692307692305</v>
+        <v>170.74545454545452</v>
       </c>
     </row>
     <row r="30" spans="2:38" x14ac:dyDescent="0.25">
       <c r="J30">
-        <v>278.45</v>
+        <v>233.4</v>
       </c>
       <c r="K30">
-        <v>268.92222222222216</v>
+        <v>236.36315789473682</v>
       </c>
       <c r="L30">
-        <v>305.36923076923074</v>
+        <v>251.64499999999992</v>
       </c>
       <c r="M30">
-        <v>419.4636363636364</v>
+        <v>307.77777777777783</v>
       </c>
       <c r="N30">
-        <v>247.54999999999998</v>
+        <v>231</v>
       </c>
       <c r="O30">
-        <v>266.82800000000003</v>
+        <v>247.5424242424242</v>
       </c>
       <c r="P30">
-        <v>305.16249999999997</v>
+        <v>314.29000000000002</v>
       </c>
       <c r="Q30">
-        <v>235.65555555555557</v>
+        <v>255.95757575757577</v>
       </c>
       <c r="R30">
-        <v>241.90909090909091</v>
+        <v>273.44102564102559</v>
       </c>
       <c r="T30">
-        <v>339.75714285714287</v>
+        <v>269.26666666666665</v>
       </c>
       <c r="U30">
-        <v>265.61666666666667</v>
+        <v>264.52000000000004</v>
       </c>
       <c r="V30">
-        <v>333.46666666666664</v>
+        <v>319.83529411764698</v>
       </c>
       <c r="W30">
-        <v>298.78000000000009</v>
+        <v>299.03333333333336</v>
       </c>
       <c r="X30">
-        <v>262.12</v>
+        <v>257.3</v>
       </c>
       <c r="Y30">
-        <v>272.76875000000001</v>
+        <v>294.65609756097575</v>
       </c>
       <c r="Z30">
-        <v>276.25</v>
+        <v>320.18</v>
       </c>
       <c r="AA30">
-        <v>278.65000000000003</v>
+        <v>300.92307692307691</v>
       </c>
       <c r="AB30">
-        <v>382.0333333333333</v>
+        <v>294.52105263157898</v>
       </c>
       <c r="AD30">
-        <v>216.24166666666667</v>
+        <v>243.57222222222219</v>
       </c>
       <c r="AE30">
-        <v>207.75454545454548</v>
+        <v>239.35952380952389</v>
       </c>
       <c r="AF30">
-        <v>205.83999999999995</v>
+        <v>238.92999999999992</v>
       </c>
       <c r="AG30">
-        <v>250.45</v>
+        <v>223.08499999999998</v>
       </c>
       <c r="AH30">
-        <v>215.15</v>
+        <v>231.72058823529414</v>
       </c>
       <c r="AI30">
-        <v>193.60499999999999</v>
+        <v>229.80344827586208</v>
       </c>
       <c r="AJ30">
-        <v>221.09090909090909</v>
+        <v>231.61500000000001</v>
       </c>
       <c r="AK30">
-        <v>216.03333333333333</v>
+        <v>223.21818181818182</v>
       </c>
       <c r="AL30">
-        <v>243.86666666666667</v>
+        <v>214.60555555555558</v>
       </c>
     </row>
     <row r="31" spans="2:38" x14ac:dyDescent="0.25">
       <c r="J31">
-        <v>235.09444444444443</v>
+        <v>297.45294117647057</v>
       </c>
       <c r="K31">
-        <v>271.46999999999997</v>
+        <v>303.83157894736843</v>
       </c>
       <c r="L31">
-        <v>253.29199999999997</v>
+        <v>315.64583333333331</v>
       </c>
       <c r="M31">
-        <v>290.53750000000002</v>
+        <v>333.71666666666664</v>
       </c>
       <c r="N31">
-        <v>244.01428571428573</v>
+        <v>261.62</v>
       </c>
       <c r="O31">
-        <v>240.14571428571429</v>
+        <v>286.34193548387105</v>
       </c>
       <c r="P31">
-        <v>289.26666666666665</v>
+        <v>330.46666666666664</v>
       </c>
       <c r="Q31">
-        <v>243.21</v>
+        <v>304.39499999999998</v>
       </c>
       <c r="R31">
-        <v>223.52083333333334</v>
+        <v>278.8257142857143</v>
       </c>
       <c r="T31">
-        <v>241.08421052631576</v>
+        <v>322.06785714285712</v>
       </c>
       <c r="U31">
-        <v>274.83157894736837</v>
+        <v>331.06842105263166</v>
       </c>
       <c r="V31">
-        <v>254.63157894736847</v>
+        <v>345.26190476190482</v>
       </c>
       <c r="W31">
-        <v>302.7578947368421</v>
+        <v>356.96</v>
       </c>
       <c r="X31">
-        <v>238.29999999999998</v>
+        <v>312.70909090909095</v>
       </c>
       <c r="Y31">
-        <v>263.06363636363631</v>
+        <v>345.32972972972971</v>
       </c>
       <c r="Z31">
-        <v>344.76666666666665</v>
+        <v>351.81874999999997</v>
       </c>
       <c r="AA31">
-        <v>280.55161290322582</v>
+        <v>361.815</v>
       </c>
       <c r="AB31">
-        <v>272.00294117647059</v>
+        <v>351.09200000000004</v>
       </c>
       <c r="AD31">
-        <v>228.82580645161292</v>
+        <v>255.05416666666659</v>
       </c>
       <c r="AE31">
-        <v>207.9</v>
+        <v>269.78125000000006</v>
       </c>
       <c r="AF31">
-        <v>239.46800000000002</v>
+        <v>289.01904761904763</v>
       </c>
       <c r="AG31">
-        <v>207.43571428571428</v>
+        <v>293.74736842105267</v>
       </c>
       <c r="AH31">
-        <v>216.78064516129035</v>
+        <v>256.62413793103445</v>
       </c>
       <c r="AI31">
-        <v>211.76097560975612</v>
+        <v>282.17647058823536</v>
       </c>
       <c r="AJ31">
-        <v>203.98</v>
+        <v>314.36842105263156</v>
       </c>
       <c r="AK31">
-        <v>228.45</v>
+        <v>294.97647058823526</v>
       </c>
       <c r="AL31">
-        <v>212.25217391304344</v>
+        <v>262.95714285714286</v>
       </c>
     </row>
     <row r="32" spans="2:38" x14ac:dyDescent="0.25">
       <c r="J32">
-        <v>243.21999999999997</v>
+        <v>188.97999999999996</v>
       </c>
       <c r="K32">
-        <v>232.01</v>
+        <v>176</v>
       </c>
       <c r="L32">
-        <v>222.48749999999998</v>
+        <v>197.34999999999997</v>
       </c>
       <c r="M32">
-        <v>320.13</v>
+        <v>316.04444444444448</v>
       </c>
       <c r="N32">
-        <v>211.76</v>
+        <v>140.16666666666666</v>
       </c>
       <c r="O32">
-        <v>217.81538461538463</v>
+        <v>213.99411764705883</v>
       </c>
       <c r="P32">
-        <v>212.46666666666667</v>
+        <v>320.5</v>
       </c>
       <c r="Q32">
-        <v>296.42307692307696</v>
+        <v>242.56666666666666</v>
       </c>
       <c r="R32">
-        <v>219.17272727272723</v>
+        <v>227.03636363636363</v>
       </c>
       <c r="T32">
-        <v>229.7</v>
+        <v>213.1</v>
       </c>
       <c r="U32">
-        <v>303.85000000000002</v>
+        <v>253.64000000000001</v>
       </c>
       <c r="V32">
-        <v>241.86666666666665</v>
+        <v>238.9</v>
       </c>
       <c r="W32">
-        <v>242.66000000000003</v>
+        <v>319.61</v>
       </c>
       <c r="X32">
-        <v>237.70000000000002</v>
+        <v>216.02499999999998</v>
       </c>
       <c r="Y32">
-        <v>245.28888888888889</v>
-      </c>
-      <c r="Z32">
-        <v>294.02499999999998</v>
+        <v>255.11666666666665</v>
       </c>
       <c r="AA32">
-        <v>273.73076923076917</v>
+        <v>250.01111111111109</v>
       </c>
       <c r="AB32">
-        <v>278.7285714285714</v>
+        <v>236.84444444444449</v>
       </c>
       <c r="AD32">
-        <v>206.08333333333334</v>
+        <v>170.125</v>
       </c>
       <c r="AE32">
-        <v>213.60714285714286</v>
+        <v>176.36153846153846</v>
       </c>
       <c r="AF32">
-        <v>193.63888888888891</v>
+        <v>166.45</v>
       </c>
       <c r="AG32">
-        <v>206.04615384615383</v>
+        <v>166.7</v>
       </c>
       <c r="AH32">
-        <v>228.04000000000002</v>
+        <v>155.57499999999999</v>
       </c>
       <c r="AI32">
-        <v>229.35714285714283</v>
+        <v>166.14444444444447</v>
       </c>
       <c r="AJ32">
-        <v>204.23333333333332</v>
+        <v>188.97499999999999</v>
       </c>
       <c r="AK32">
-        <v>220.1363636363636</v>
+        <v>181.46666666666667</v>
       </c>
       <c r="AL32">
-        <v>203.37500000000003</v>
+        <v>168.05</v>
       </c>
     </row>
     <row r="33" spans="10:38" x14ac:dyDescent="0.25">
       <c r="J33">
-        <v>196.09047619047618</v>
+        <v>210.5190476190476</v>
       </c>
       <c r="K33">
-        <v>216.02222222222224</v>
+        <v>243.60454545454547</v>
       </c>
       <c r="L33">
-        <v>249.58571428571426</v>
+        <v>240.01599999999991</v>
       </c>
       <c r="M33">
-        <v>238.41666666666663</v>
+        <v>302.81176470588235</v>
       </c>
       <c r="N33">
-        <v>223.92</v>
+        <v>235.58235294117648</v>
       </c>
       <c r="O33">
-        <v>211.26578947368424</v>
+        <v>232.5272727272727</v>
       </c>
       <c r="P33">
-        <v>268.7</v>
+        <v>277.18888888888887</v>
       </c>
       <c r="Q33">
-        <v>237.58666666666662</v>
+        <v>251.94374999999999</v>
       </c>
       <c r="R33">
-        <v>219.35555555555555</v>
+        <v>238.42368421052632</v>
       </c>
       <c r="T33">
-        <v>251.12727272727278</v>
+        <v>256.77857142857141</v>
       </c>
       <c r="U33">
-        <v>259.27199999999999</v>
+        <v>281.40800000000002</v>
       </c>
       <c r="V33">
-        <v>278.72777777777782</v>
+        <v>275.48124999999999</v>
       </c>
       <c r="W33">
-        <v>329.99999999999994</v>
+        <v>270.26956521739123</v>
       </c>
       <c r="X33">
-        <v>255.71111111111111</v>
+        <v>239.92222222222219</v>
       </c>
       <c r="Y33">
-        <v>264.2838709677419</v>
+        <v>252.85</v>
       </c>
       <c r="Z33">
-        <v>304.6307692307692</v>
+        <v>291.29374999999999</v>
       </c>
       <c r="AA33">
-        <v>293.34772727272724</v>
+        <v>274.02307692307693</v>
       </c>
       <c r="AB33">
-        <v>299.26551724137931</v>
+        <v>258.9636363636364</v>
       </c>
       <c r="AD33">
-        <v>189.11176470588236</v>
+        <v>201.64545454545453</v>
       </c>
       <c r="AE33">
-        <v>201.37142857142854</v>
+        <v>205.85428571428571</v>
       </c>
       <c r="AF33">
-        <v>194.97358490566032</v>
+        <v>214.37555555555554</v>
       </c>
       <c r="AG33">
-        <v>195.75263157894736</v>
+        <v>212.78095238095241</v>
       </c>
       <c r="AH33">
-        <v>199.73611111111114</v>
+        <v>202.71428571428575</v>
       </c>
       <c r="AI33">
-        <v>205.72708333333335</v>
+        <v>208.92812500000002</v>
       </c>
       <c r="AJ33">
-        <v>208.82500000000002</v>
+        <v>192.39642857142849</v>
       </c>
       <c r="AK33">
-        <v>207.74500000000003</v>
+        <v>218.4388888888889</v>
       </c>
       <c r="AL33">
-        <v>201.108</v>
+        <v>210.84545454545457</v>
       </c>
     </row>
     <row r="34" spans="10:38" x14ac:dyDescent="0.25">
       <c r="J34">
-        <v>233.08846153846156</v>
+        <v>192.18571428571428</v>
       </c>
       <c r="K34">
-        <v>206.56</v>
+        <v>210.7227272727273</v>
       </c>
       <c r="L34">
-        <v>232.95555555555555</v>
+        <v>217.98611111111106</v>
       </c>
       <c r="M34">
-        <v>295.76842105263154</v>
+        <v>213.78750000000002</v>
       </c>
       <c r="N34">
-        <v>237.97142857142859</v>
+        <v>197.42222222222222</v>
       </c>
       <c r="O34">
-        <v>238.56296296296293</v>
+        <v>203.63750000000005</v>
       </c>
       <c r="P34">
-        <v>283.76923076923072</v>
+        <v>217.25</v>
       </c>
       <c r="Q34">
-        <v>229.18571428571428</v>
+        <v>201.00857142857146</v>
       </c>
       <c r="R34">
-        <v>211.83214285714283</v>
+        <v>187.48205128205129</v>
       </c>
       <c r="T34">
-        <v>249.20434782608692</v>
+        <v>274.71666666666664</v>
       </c>
       <c r="U34">
-        <v>259.81000000000006</v>
+        <v>270.06470588235288</v>
       </c>
       <c r="V34">
-        <v>276.59565217391309</v>
+        <v>252.40999999999997</v>
       </c>
       <c r="W34">
-        <v>285.83846153846156</v>
+        <v>290.86190476190484</v>
       </c>
       <c r="X34">
-        <v>234.45999999999998</v>
+        <v>245.76470588235293</v>
       </c>
       <c r="Y34">
-        <v>239.97586206896548</v>
+        <v>270.01875000000001</v>
       </c>
       <c r="Z34">
-        <v>272.27692307692308</v>
+        <v>270.10624999999999</v>
       </c>
       <c r="AA34">
-        <v>265.45128205128208</v>
+        <v>269.52727272727265</v>
       </c>
       <c r="AB34">
-        <v>259.54642857142852</v>
+        <v>261.28857142857146</v>
       </c>
       <c r="AD34">
-        <v>209.93703703703699</v>
+        <v>196.95862068965519</v>
       </c>
       <c r="AE34">
-        <v>191.71923076923076</v>
+        <v>213.9594594594594</v>
       </c>
       <c r="AF34">
-        <v>198.8394736842105</v>
+        <v>197.38571428571436</v>
       </c>
       <c r="AG34">
-        <v>189.44499999999999</v>
+        <v>195.2235294117647</v>
       </c>
       <c r="AH34">
-        <v>190.23571428571432</v>
+        <v>197.09189189189181</v>
       </c>
       <c r="AI34">
-        <v>202.28809523809525</v>
+        <v>195.27600000000007</v>
       </c>
       <c r="AJ34">
-        <v>206.02999999999997</v>
+        <v>184.83333333333331</v>
       </c>
       <c r="AK34">
-        <v>198.18750000000003</v>
+        <v>195.38260869565218</v>
       </c>
       <c r="AL34">
-        <v>195.4909090909091</v>
+        <v>202.12692307692305</v>
       </c>
     </row>
     <row r="35" spans="10:38" x14ac:dyDescent="0.25">
       <c r="J35">
-        <v>192.05384615384614</v>
+        <v>278.45</v>
       </c>
       <c r="K35">
-        <v>219.68333333333337</v>
+        <v>268.92222222222216</v>
       </c>
       <c r="L35">
-        <v>231.44</v>
+        <v>305.36923076923074</v>
       </c>
       <c r="M35">
-        <v>317.03333333333336</v>
+        <v>419.4636363636364</v>
       </c>
       <c r="N35">
-        <v>203.12500000000003</v>
+        <v>247.54999999999998</v>
       </c>
       <c r="O35">
-        <v>222.10999999999999</v>
+        <v>266.82800000000003</v>
       </c>
       <c r="P35">
-        <v>258.42500000000001</v>
+        <v>305.16249999999997</v>
       </c>
       <c r="Q35">
-        <v>301.05555555555554</v>
+        <v>235.65555555555557</v>
       </c>
       <c r="R35">
-        <v>219.77777777777774</v>
+        <v>241.90909090909091</v>
       </c>
       <c r="T35">
-        <v>255.86666666666665</v>
+        <v>339.75714285714287</v>
       </c>
       <c r="U35">
-        <v>226.16666666666666</v>
+        <v>265.61666666666667</v>
       </c>
       <c r="V35">
-        <v>298.14</v>
+        <v>333.46666666666664</v>
       </c>
       <c r="W35">
-        <v>368.73999999999995</v>
+        <v>298.78000000000009</v>
       </c>
       <c r="X35">
-        <v>235</v>
+        <v>262.12</v>
       </c>
       <c r="Y35">
-        <v>267.02307692307693</v>
+        <v>272.76875000000001</v>
       </c>
       <c r="Z35">
-        <v>343.65</v>
+        <v>276.25</v>
       </c>
       <c r="AA35">
-        <v>374.40000000000009</v>
+        <v>278.65000000000003</v>
       </c>
       <c r="AB35">
-        <v>328.02222222222218</v>
+        <v>382.0333333333333</v>
       </c>
       <c r="AD35">
-        <v>216.65</v>
+        <v>216.24166666666667</v>
       </c>
       <c r="AE35">
-        <v>220.36999999999998</v>
+        <v>207.75454545454548</v>
       </c>
       <c r="AF35">
-        <v>222.83076923076925</v>
+        <v>205.83999999999995</v>
       </c>
       <c r="AG35">
-        <v>214.3111111111111</v>
+        <v>250.45</v>
       </c>
       <c r="AH35">
-        <v>186.38750000000002</v>
+        <v>215.15</v>
       </c>
       <c r="AI35">
-        <v>214.90666666666667</v>
+        <v>193.60499999999999</v>
       </c>
       <c r="AJ35">
-        <v>176.31666666666663</v>
+        <v>221.09090909090909</v>
       </c>
       <c r="AK35">
-        <v>223.16666666666666</v>
+        <v>216.03333333333333</v>
       </c>
       <c r="AL35">
-        <v>228.96666666666667</v>
+        <v>243.86666666666667</v>
       </c>
     </row>
     <row r="40" spans="10:38" x14ac:dyDescent="0.25">
       <c r="L40">
-        <v>181.94711864406784</v>
+        <v>219.99748743718581</v>
       </c>
       <c r="M40">
-        <v>238.40993150684935</v>
+        <v>229.85888324873088</v>
       </c>
       <c r="N40">
-        <v>176.0003401360544</v>
+        <v>194.64673366834174</v>
       </c>
       <c r="O40">
-        <v>202.83043478260868</v>
+        <v>262.38648648648649</v>
       </c>
       <c r="P40">
-        <v>179.84774774774777</v>
+        <v>239.72954545454533</v>
       </c>
       <c r="Q40">
-        <v>201.60149253731345</v>
+        <v>244.22933333333333</v>
       </c>
       <c r="R40">
-        <v>215.51969696969701</v>
+        <v>244.74117647058821</v>
       </c>
       <c r="S40">
-        <v>235.80086206896556</v>
+        <v>255.53809523809528</v>
       </c>
       <c r="T40">
-        <v>247.69843750000001</v>
+        <v>265.82968749999998</v>
       </c>
       <c r="U40">
-        <v>171.73333333333338</v>
+        <v>201.29222222222222</v>
       </c>
       <c r="V40">
-        <v>175.35531914893616</v>
+        <v>197.30107526881716</v>
       </c>
       <c r="W40">
-        <v>176.64576271186436</v>
+        <v>203.91752577319591</v>
       </c>
     </row>
     <row r="41" spans="10:38" x14ac:dyDescent="0.25">
       <c r="L41">
-        <v>240.89183673469375</v>
+        <v>181.94711864406784</v>
       </c>
       <c r="M41">
-        <v>264.8441624365484</v>
+        <v>238.40993150684935</v>
       </c>
       <c r="N41">
-        <v>254.92349999999999</v>
+        <v>176.0003401360544</v>
       </c>
       <c r="O41">
-        <v>358.59452054794519</v>
+        <v>202.83043478260868</v>
       </c>
       <c r="P41">
-        <v>316.51123595505612</v>
+        <v>179.84774774774777</v>
       </c>
       <c r="Q41">
-        <v>294.53207547169814</v>
+        <v>201.60149253731345</v>
       </c>
       <c r="R41">
-        <v>293.48400000000004</v>
+        <v>215.51969696969701</v>
       </c>
       <c r="S41">
-        <v>314.27065217391288</v>
+        <v>235.80086206896556</v>
       </c>
       <c r="T41">
-        <v>316.40289855072456</v>
+        <v>247.69843750000001</v>
       </c>
       <c r="U41">
-        <v>261.0397959183673</v>
+        <v>171.73333333333338</v>
       </c>
       <c r="V41">
-        <v>245.93418803418808</v>
+        <v>175.35531914893616</v>
       </c>
       <c r="W41">
-        <v>250.65568181818182</v>
+        <v>176.64576271186436</v>
       </c>
     </row>
     <row r="42" spans="10:38" x14ac:dyDescent="0.25">
       <c r="L42">
-        <v>187.25000000000003</v>
+        <v>240.89183673469375</v>
       </c>
       <c r="M42">
-        <v>237.95336787564776</v>
+        <v>264.8441624365484</v>
       </c>
       <c r="N42">
-        <v>176.06122448979588</v>
+        <v>254.92349999999999</v>
       </c>
       <c r="O42">
-        <v>195.94666666666663</v>
+        <v>358.59452054794519</v>
       </c>
       <c r="P42">
-        <v>186.92941176470595</v>
+        <v>316.51123595505612</v>
       </c>
       <c r="Q42">
-        <v>193.79402985074626</v>
+        <v>294.53207547169814</v>
       </c>
       <c r="R42">
-        <v>255.63880597014924</v>
+        <v>293.48400000000004</v>
       </c>
       <c r="S42">
-        <v>257.77040816326536</v>
+        <v>314.27065217391288</v>
       </c>
       <c r="T42">
-        <v>247.69696969696972</v>
+        <v>316.40289855072456</v>
       </c>
       <c r="U42">
-        <v>184.6142857142857</v>
+        <v>261.0397959183673</v>
       </c>
       <c r="V42">
-        <v>186.19789473684213</v>
+        <v>245.93418803418808</v>
       </c>
       <c r="W42">
-        <v>191.57263157894738</v>
+        <v>250.65568181818182</v>
       </c>
     </row>
     <row r="43" spans="10:38" x14ac:dyDescent="0.25">
       <c r="L43">
-        <v>166.32222222222231</v>
+        <v>187.25000000000003</v>
       </c>
       <c r="M43">
-        <v>217.95538461538453</v>
+        <v>237.95336787564776</v>
       </c>
       <c r="N43">
-        <v>172.36717171717177</v>
+        <v>176.06122448979588</v>
       </c>
       <c r="O43">
-        <v>189.43508771929817</v>
+        <v>195.94666666666663</v>
       </c>
       <c r="P43">
-        <v>173.06339285714284</v>
+        <v>186.92941176470595</v>
       </c>
       <c r="Q43">
-        <v>184.55200000000002</v>
+        <v>193.79402985074626</v>
       </c>
       <c r="R43">
-        <v>220.06896551724142</v>
+        <v>255.63880597014924</v>
       </c>
       <c r="S43">
-        <v>230.41685393258425</v>
+        <v>257.77040816326536</v>
       </c>
       <c r="T43">
-        <v>233.44912280701757</v>
+        <v>247.69696969696972</v>
       </c>
       <c r="U43">
-        <v>168.94285714285718</v>
+        <v>184.6142857142857</v>
       </c>
       <c r="V43">
-        <v>176.91333333333336</v>
+        <v>186.19789473684213</v>
       </c>
       <c r="W43">
-        <v>168.75446428571431</v>
+        <v>191.57263157894738</v>
       </c>
     </row>
     <row r="44" spans="10:38" x14ac:dyDescent="0.25">
       <c r="L44">
-        <v>222.07046632124349</v>
+        <v>166.32222222222231</v>
       </c>
       <c r="M44">
-        <v>245.43874345549727</v>
+        <v>217.95538461538453</v>
       </c>
       <c r="N44">
-        <v>201.92295918367341</v>
+        <v>172.36717171717177</v>
       </c>
       <c r="O44">
-        <v>288.61666666666667</v>
+        <v>189.43508771929817</v>
       </c>
       <c r="P44">
-        <v>211.72653061224494</v>
+        <v>173.06339285714284</v>
       </c>
       <c r="Q44">
-        <v>221.03877551020406</v>
+        <v>184.55200000000002</v>
       </c>
       <c r="R44">
-        <v>264.77999999999997</v>
+        <v>220.06896551724142</v>
       </c>
       <c r="S44">
-        <v>266.35871559633023</v>
+        <v>230.41685393258425</v>
       </c>
       <c r="T44">
-        <v>284.2803571428571</v>
+        <v>233.44912280701757</v>
       </c>
       <c r="U44">
-        <v>214.98585858585869</v>
+        <v>168.94285714285718</v>
       </c>
       <c r="V44">
-        <v>202.24190476190489</v>
+        <v>176.91333333333336</v>
       </c>
       <c r="W44">
-        <v>207.46700000000001</v>
+        <v>168.75446428571431</v>
       </c>
     </row>
     <row r="45" spans="10:38" x14ac:dyDescent="0.25">
       <c r="L45">
-        <v>213.415824915825</v>
+        <v>245.71761658031096</v>
       </c>
       <c r="M45">
-        <v>268.10173611111134</v>
+        <v>250.28624338624343</v>
       </c>
       <c r="N45">
-        <v>213.1727272727272</v>
+        <v>214.23282051282055</v>
       </c>
       <c r="O45">
-        <v>290.1742857142857</v>
+        <v>287.18676470588247</v>
       </c>
       <c r="P45">
-        <v>240.55142857142849</v>
+        <v>232.83333333333337</v>
       </c>
       <c r="Q45">
-        <v>239.38823529411764</v>
+        <v>231.49264705882354</v>
       </c>
       <c r="R45">
-        <v>249.77777777777777</v>
+        <v>262.66769230769228</v>
       </c>
       <c r="S45">
-        <v>278.30606060606056</v>
+        <v>293.7</v>
       </c>
       <c r="T45">
-        <v>276.48636363636359</v>
+        <v>291.60136986301382</v>
       </c>
       <c r="U45">
-        <v>211.7833333333333</v>
+        <v>213.29134615384604</v>
       </c>
       <c r="V45">
-        <v>212.7029411764706</v>
+        <v>216.06521739130434</v>
       </c>
       <c r="W45">
-        <v>212.52058823529413</v>
+        <v>222.52708333333337</v>
       </c>
     </row>
     <row r="46" spans="10:38" x14ac:dyDescent="0.25">
       <c r="L46">
-        <v>210.06329787234048</v>
+        <v>222.07046632124349</v>
       </c>
       <c r="M46">
-        <v>249.07968750000009</v>
+        <v>245.43874345549727</v>
       </c>
       <c r="N46">
-        <v>210.68698630137007</v>
+        <v>201.92295918367341</v>
       </c>
       <c r="O46">
-        <v>228.32023809523812</v>
+        <v>288.61666666666667</v>
       </c>
       <c r="P46">
-        <v>220.67752808988772</v>
+        <v>211.72653061224494</v>
       </c>
       <c r="Q46">
-        <v>225.89833333333337</v>
+        <v>221.03877551020406</v>
       </c>
       <c r="R46">
-        <v>256.70136986301372</v>
+        <v>264.77999999999997</v>
       </c>
       <c r="S46">
-        <v>260.11707317073177</v>
+        <v>266.35871559633023</v>
       </c>
       <c r="T46">
-        <v>254.99743589743593</v>
+        <v>284.2803571428571</v>
       </c>
       <c r="U46">
-        <v>209.91375000000008</v>
+        <v>214.98585858585869</v>
       </c>
       <c r="V46">
-        <v>225.23647058823531</v>
+        <v>202.24190476190489</v>
       </c>
       <c r="W46">
-        <v>205.60217391304349</v>
+        <v>207.46700000000001</v>
       </c>
     </row>
     <row r="47" spans="10:38" x14ac:dyDescent="0.25">
       <c r="L47">
-        <v>232.60080321285139</v>
+        <v>213.415824915825</v>
       </c>
       <c r="M47">
-        <v>250.67804878048779</v>
+        <v>268.10173611111134</v>
       </c>
       <c r="N47">
-        <v>217.0024096385543</v>
+        <v>213.1727272727272</v>
       </c>
       <c r="O47">
-        <v>362.79047619047617</v>
+        <v>290.1742857142857</v>
       </c>
       <c r="P47">
-        <v>264.66666666666674</v>
+        <v>240.55142857142849</v>
       </c>
       <c r="Q47">
-        <v>260.59615384615392</v>
+        <v>239.38823529411764</v>
       </c>
       <c r="R47">
-        <v>307.24666666666667</v>
+        <v>249.77777777777777</v>
       </c>
       <c r="S47">
-        <v>286.84499999999991</v>
+        <v>278.30606060606056</v>
       </c>
       <c r="T47">
-        <v>310.02000000000004</v>
+        <v>276.48636363636359</v>
       </c>
       <c r="U47">
-        <v>244.19166666666666</v>
+        <v>211.7833333333333</v>
       </c>
       <c r="V47">
-        <v>227.69736842105257</v>
+        <v>212.7029411764706</v>
       </c>
       <c r="W47">
-        <v>236.45945945945945</v>
+        <v>212.52058823529413</v>
       </c>
     </row>
     <row r="48" spans="10:38" x14ac:dyDescent="0.25">
       <c r="L48">
-        <v>264.32211055276389</v>
+        <v>210.06329787234048</v>
       </c>
       <c r="M48">
-        <v>249.78172588832484</v>
+        <v>249.07968750000009</v>
       </c>
       <c r="N48">
-        <v>258.58350000000007</v>
+        <v>210.68698630137007</v>
       </c>
       <c r="O48">
-        <v>322.49454545454546</v>
+        <v>228.32023809523812</v>
       </c>
       <c r="P48">
-        <v>289.81250000000006</v>
+        <v>220.67752808988772</v>
       </c>
       <c r="Q48">
-        <v>277.20156249999997</v>
+        <v>225.89833333333337</v>
       </c>
       <c r="R48">
-        <v>261.68260869565222</v>
+        <v>256.70136986301372</v>
       </c>
       <c r="S48">
-        <v>300.53333333333342</v>
+        <v>260.11707317073177</v>
       </c>
       <c r="T48">
-        <v>316.07758620689657</v>
+        <v>254.99743589743593</v>
       </c>
       <c r="U48">
-        <v>242.47272727272727</v>
+        <v>209.91375000000008</v>
       </c>
       <c r="V48">
-        <v>238.75000000000009</v>
+        <v>225.23647058823531</v>
       </c>
       <c r="W48">
-        <v>256.38556701030922</v>
+        <v>205.60217391304349</v>
       </c>
     </row>
     <row r="49" spans="12:23" x14ac:dyDescent="0.25">
       <c r="L49">
-        <v>222.93409090909097</v>
+        <v>232.60080321285139</v>
       </c>
       <c r="M49">
-        <v>246.3977777777778</v>
+        <v>250.67804878048779</v>
       </c>
       <c r="N49">
-        <v>212.84831460674158</v>
+        <v>217.0024096385543</v>
       </c>
       <c r="O49">
-        <v>268.84915254237296</v>
+        <v>362.79047619047617</v>
       </c>
       <c r="P49">
-        <v>204.30196078431371</v>
+        <v>264.66666666666674</v>
       </c>
       <c r="Q49">
-        <v>203.966037735849</v>
+        <v>260.59615384615392</v>
       </c>
       <c r="R49">
-        <v>256.73387096774189</v>
+        <v>307.24666666666667</v>
       </c>
       <c r="S49">
-        <v>275.94090909090903</v>
+        <v>286.84499999999991</v>
       </c>
       <c r="T49">
-        <v>304.76333333333338</v>
+        <v>310.02000000000004</v>
       </c>
       <c r="U49">
-        <v>207.75934065934064</v>
+        <v>244.19166666666666</v>
       </c>
       <c r="V49">
-        <v>193.98557692307688</v>
+        <v>227.69736842105257</v>
       </c>
       <c r="W49">
-        <v>221.78723404255322</v>
+        <v>236.45945945945945</v>
       </c>
     </row>
     <row r="50" spans="12:23" x14ac:dyDescent="0.25">
       <c r="L50">
-        <v>183.95486111111106</v>
+        <v>264.32211055276389</v>
       </c>
       <c r="M50">
-        <v>238.30931899641561</v>
+        <v>249.78172588832484</v>
       </c>
       <c r="N50">
-        <v>179.15945017182122</v>
+        <v>258.58350000000007</v>
       </c>
       <c r="O50">
-        <v>265.39600000000002</v>
+        <v>322.49454545454546</v>
       </c>
       <c r="P50">
-        <v>198.67647058823533</v>
+        <v>289.81250000000006</v>
       </c>
       <c r="Q50">
-        <v>213.53181818181818</v>
+        <v>277.20156249999997</v>
       </c>
       <c r="R50">
-        <v>248.94375000000002</v>
+        <v>261.68260869565222</v>
       </c>
       <c r="S50">
-        <v>247.97272727272727</v>
+        <v>300.53333333333342</v>
       </c>
       <c r="T50">
-        <v>250.83750000000001</v>
+        <v>316.07758620689657</v>
       </c>
       <c r="U50">
-        <v>178.93000000000004</v>
+        <v>242.47272727272727</v>
       </c>
       <c r="V50">
-        <v>175.28000000000003</v>
+        <v>238.75000000000009</v>
       </c>
       <c r="W50">
-        <v>189.28928571428577</v>
+        <v>256.38556701030922</v>
       </c>
     </row>
     <row r="51" spans="12:23" x14ac:dyDescent="0.25">
       <c r="L51">
-        <v>238.68526315789481</v>
+        <v>222.93409090909097</v>
       </c>
       <c r="M51">
-        <v>250.87105263157906</v>
+        <v>246.3977777777778</v>
       </c>
       <c r="N51">
-        <v>209.39999999999995</v>
+        <v>212.84831460674158</v>
       </c>
       <c r="O51">
-        <v>337.81066666666663</v>
+        <v>268.84915254237296</v>
       </c>
       <c r="P51">
-        <v>257.03999999999991</v>
+        <v>204.30196078431371</v>
       </c>
       <c r="Q51">
-        <v>264.28070175438597</v>
+        <v>203.966037735849</v>
       </c>
       <c r="R51">
-        <v>265.18227848101264</v>
+        <v>256.73387096774189</v>
       </c>
       <c r="S51">
-        <v>322.83673469387764</v>
+        <v>275.94090909090903</v>
       </c>
       <c r="T51">
-        <v>338.11384615384617</v>
+        <v>304.76333333333338</v>
       </c>
       <c r="U51">
-        <v>243.4407766990291</v>
+        <v>207.75934065934064</v>
       </c>
       <c r="V51">
-        <v>224.75510204081621</v>
+        <v>193.98557692307688</v>
       </c>
       <c r="W51">
-        <v>225.76603773584907</v>
+        <v>221.78723404255322</v>
       </c>
     </row>
     <row r="52" spans="12:23" x14ac:dyDescent="0.25">
       <c r="L52">
-        <v>258.33505154639175</v>
+        <v>183.95486111111106</v>
       </c>
       <c r="M52">
-        <v>251.11254752851713</v>
+        <v>238.30931899641561</v>
       </c>
       <c r="N52">
-        <v>226.80687285223362</v>
+        <v>179.15945017182122</v>
       </c>
       <c r="O52">
-        <v>261.56</v>
+        <v>265.39600000000002</v>
       </c>
       <c r="P52">
-        <v>253.01052631578941</v>
+        <v>198.67647058823533</v>
       </c>
       <c r="Q52">
-        <v>236.00769230769231</v>
+        <v>213.53181818181818</v>
       </c>
       <c r="R52">
-        <v>280.62857142857149</v>
+        <v>248.94375000000002</v>
       </c>
       <c r="S52">
-        <v>306.11818181818182</v>
+        <v>247.97272727272727</v>
       </c>
       <c r="T52">
-        <v>372.97500000000008</v>
+        <v>250.83750000000001</v>
       </c>
       <c r="U52">
-        <v>225.93750000000006</v>
+        <v>178.93000000000004</v>
       </c>
       <c r="V52">
-        <v>221.14848484848486</v>
+        <v>175.28000000000003</v>
       </c>
       <c r="W52">
-        <v>254.75128205128203</v>
+        <v>189.28928571428577</v>
       </c>
     </row>
     <row r="53" spans="12:23" x14ac:dyDescent="0.25">
       <c r="L53">
-        <v>189.68762214983707</v>
+        <v>238.68526315789481</v>
       </c>
       <c r="M53">
-        <v>244.11958762886593</v>
+        <v>250.87105263157906</v>
       </c>
       <c r="N53">
-        <v>196.53161512027489</v>
+        <v>209.39999999999995</v>
       </c>
       <c r="O53">
-        <v>281.07241379310341</v>
+        <v>337.81066666666663</v>
       </c>
       <c r="P53">
-        <v>218.18571428571431</v>
+        <v>257.03999999999991</v>
       </c>
       <c r="Q53">
-        <v>239.64074074074074</v>
+        <v>264.28070175438597</v>
       </c>
       <c r="R53">
-        <v>287.90666666666664</v>
+        <v>265.18227848101264</v>
       </c>
       <c r="S53">
-        <v>259.82368421052632</v>
+        <v>322.83673469387764</v>
       </c>
       <c r="T53">
-        <v>279.39583333333337</v>
+        <v>338.11384615384617</v>
       </c>
       <c r="U53">
-        <v>210.73541666666662</v>
+        <v>243.4407766990291</v>
       </c>
       <c r="V53">
-        <v>209.86428571428578</v>
+        <v>224.75510204081621</v>
       </c>
       <c r="W53">
-        <v>192.18387096774194</v>
+        <v>225.76603773584907</v>
       </c>
     </row>
     <row r="54" spans="12:23" x14ac:dyDescent="0.25">
       <c r="L54">
-        <v>200.57236180904525</v>
+        <v>258.33505154639175</v>
       </c>
       <c r="M54">
-        <v>226.88383838383839</v>
+        <v>251.11254752851713</v>
       </c>
       <c r="N54">
-        <v>202.27900000000008</v>
+        <v>226.80687285223362</v>
       </c>
       <c r="O54">
-        <v>398.60307692307686</v>
+        <v>261.56</v>
       </c>
       <c r="P54">
-        <v>228.64190476190481</v>
+        <v>253.01052631578941</v>
       </c>
       <c r="Q54">
-        <v>216.59444444444446</v>
+        <v>236.00769230769231</v>
       </c>
       <c r="R54">
-        <v>257.59999999999997</v>
+        <v>280.62857142857149</v>
       </c>
       <c r="S54">
-        <v>302.2595959595958</v>
+        <v>306.11818181818182</v>
       </c>
       <c r="T54">
-        <v>358.3</v>
+        <v>372.97500000000008</v>
       </c>
       <c r="U54">
-        <v>204.32164948453615</v>
+        <v>225.93750000000006</v>
       </c>
       <c r="V54">
-        <v>196.91473684210521</v>
+        <v>221.14848484848486</v>
       </c>
       <c r="W54">
-        <v>207.90873786407761</v>
+        <v>254.75128205128203</v>
       </c>
     </row>
     <row r="55" spans="12:23" x14ac:dyDescent="0.25">
       <c r="L55">
-        <v>192.91785714285714</v>
+        <v>189.68762214983707</v>
       </c>
       <c r="M55">
-        <v>215.74531249999987</v>
+        <v>244.11958762886593</v>
       </c>
       <c r="N55">
-        <v>191.13147208121828</v>
+        <v>196.53161512027489</v>
       </c>
       <c r="O55">
-        <v>291.36571428571426</v>
+        <v>281.07241379310341</v>
       </c>
       <c r="P55">
-        <v>259.22446808510642</v>
+        <v>218.18571428571431</v>
       </c>
       <c r="Q55">
-        <v>226.2</v>
+        <v>239.64074074074074</v>
       </c>
       <c r="R55">
-        <v>245.68333333333345</v>
+        <v>287.90666666666664</v>
       </c>
       <c r="S55">
-        <v>253.39082568807339</v>
+        <v>259.82368421052632</v>
       </c>
       <c r="T55">
-        <v>278.12083333333317</v>
+        <v>279.39583333333337</v>
       </c>
       <c r="U55">
-        <v>210.149090909091</v>
+        <v>210.73541666666662</v>
       </c>
       <c r="V55">
-        <v>199.32090909090908</v>
+        <v>209.86428571428578</v>
       </c>
       <c r="W55">
-        <v>200.25824175824172</v>
+        <v>192.18387096774194</v>
       </c>
     </row>
     <row r="56" spans="12:23" x14ac:dyDescent="0.25">
       <c r="L56">
-        <v>165.70684210526323</v>
+        <v>200.57236180904525</v>
       </c>
       <c r="M56">
-        <v>209.38010471204188</v>
+        <v>226.88383838383839</v>
       </c>
       <c r="N56">
-        <v>164.04974619289339</v>
+        <v>202.27900000000008</v>
       </c>
       <c r="O56">
-        <v>198.90375000000003</v>
+        <v>398.60307692307686</v>
       </c>
       <c r="P56">
-        <v>166.32133333333329</v>
+        <v>228.64190476190481</v>
       </c>
       <c r="Q56">
-        <v>168.79846153846151</v>
+        <v>216.59444444444446</v>
       </c>
       <c r="R56">
-        <v>205.31071428571425</v>
+        <v>257.59999999999997</v>
       </c>
       <c r="S56">
-        <v>232.3272727272728</v>
+        <v>302.2595959595958</v>
       </c>
       <c r="T56">
-        <v>204.5317073170732</v>
+        <v>358.3</v>
       </c>
       <c r="U56">
-        <v>161.86704545454543</v>
+        <v>204.32164948453615</v>
       </c>
       <c r="V56">
-        <v>152.55465116279069</v>
+        <v>196.91473684210521</v>
       </c>
       <c r="W56">
-        <v>158.07625000000002</v>
+        <v>207.90873786407761</v>
       </c>
     </row>
     <row r="57" spans="12:23" x14ac:dyDescent="0.25">
       <c r="L57">
-        <v>178.72565445026166</v>
+        <v>192.91785714285714</v>
       </c>
       <c r="M57">
-        <v>223.83523316062187</v>
+        <v>215.74531249999987</v>
       </c>
       <c r="N57">
-        <v>176.88195876288654</v>
+        <v>191.13147208121828</v>
       </c>
       <c r="O57">
-        <v>234.3366666666667</v>
+        <v>291.36571428571426</v>
       </c>
       <c r="P57">
-        <v>195.07596153846146</v>
+        <v>259.22446808510642</v>
       </c>
       <c r="Q57">
-        <v>192.8691176470588</v>
+        <v>226.2</v>
       </c>
       <c r="R57">
-        <v>225.79531249999997</v>
+        <v>245.68333333333345</v>
       </c>
       <c r="S57">
-        <v>233.77640449438209</v>
+        <v>253.39082568807339</v>
       </c>
       <c r="T57">
-        <v>251.29791666666662</v>
+        <v>278.12083333333317</v>
       </c>
       <c r="U57">
-        <v>188.15319148936169</v>
+        <v>210.149090909091</v>
       </c>
       <c r="V57">
-        <v>175.30923076923077</v>
+        <v>199.32090909090908</v>
       </c>
       <c r="W57">
-        <v>192.52121212121219</v>
+        <v>200.25824175824172</v>
       </c>
     </row>
     <row r="58" spans="12:23" x14ac:dyDescent="0.25">
       <c r="L58">
-        <v>178.53210702341147</v>
+        <v>218.90505050505041</v>
       </c>
       <c r="M58">
-        <v>218.26454849498319</v>
+        <v>234.38564102564115</v>
       </c>
       <c r="N58">
-        <v>168.16711409395973</v>
+        <v>194.54975124378112</v>
       </c>
       <c r="O58">
-        <v>218.26521739130439</v>
+        <v>324.99718309859151</v>
       </c>
       <c r="P58">
-        <v>193.34871794871793</v>
+        <v>228.57500000000002</v>
       </c>
       <c r="Q58">
-        <v>179.07307692307691</v>
+        <v>214.70821917808226</v>
       </c>
       <c r="R58">
-        <v>228.42500000000001</v>
+        <v>251.04705882352937</v>
       </c>
       <c r="S58">
-        <v>241.6682926829269</v>
+        <v>261.95825242718428</v>
       </c>
       <c r="T58">
-        <v>254.4434782608696</v>
+        <v>272.9909090909091</v>
       </c>
       <c r="U58">
-        <v>174.75238095238097</v>
+        <v>225.67311827956988</v>
       </c>
       <c r="V58">
-        <v>166.46500000000009</v>
+        <v>198.33437500000002</v>
       </c>
       <c r="W58">
-        <v>175.36285714285714</v>
+        <v>204.38557692307694</v>
       </c>
     </row>
     <row r="59" spans="12:23" x14ac:dyDescent="0.25">
       <c r="L59">
-        <v>229.97986577181214</v>
+        <v>165.70684210526323</v>
       </c>
       <c r="M59">
-        <v>246.9637755102039</v>
+        <v>209.38010471204188</v>
       </c>
       <c r="N59">
-        <v>222.78104838709672</v>
+        <v>164.04974619289339</v>
       </c>
       <c r="O59">
-        <v>293.83589743589738</v>
+        <v>198.90375000000003</v>
       </c>
       <c r="P59">
-        <v>266.57017543859644</v>
+        <v>166.32133333333329</v>
       </c>
       <c r="Q59">
-        <v>250.17241379310343</v>
+        <v>168.79846153846151</v>
       </c>
       <c r="R59">
-        <v>264.26999999999992</v>
+        <v>205.31071428571425</v>
       </c>
       <c r="S59">
-        <v>267.78333333333342</v>
+        <v>232.3272727272728</v>
       </c>
       <c r="T59">
-        <v>293.45999999999998</v>
+        <v>204.5317073170732</v>
       </c>
       <c r="U59">
-        <v>238.47619047619048</v>
+        <v>161.86704545454543</v>
       </c>
       <c r="V59">
-        <v>222.16470588235282</v>
+        <v>152.55465116279069</v>
       </c>
       <c r="W59">
-        <v>230.57407407407408</v>
+        <v>158.07625000000002</v>
       </c>
     </row>
     <row r="60" spans="12:23" x14ac:dyDescent="0.25">
       <c r="L60">
-        <v>207.9260135135134</v>
+        <v>178.72565445026166</v>
       </c>
       <c r="M60">
-        <v>245.75876288659813</v>
+        <v>223.83523316062187</v>
       </c>
       <c r="N60">
-        <v>192.91304347826085</v>
+        <v>176.88195876288654</v>
       </c>
       <c r="O60">
-        <v>224.49999999999994</v>
+        <v>234.3366666666667</v>
       </c>
       <c r="P60">
-        <v>219.1</v>
+        <v>195.07596153846146</v>
       </c>
       <c r="Q60">
-        <v>250.23749999999995</v>
+        <v>192.8691176470588</v>
       </c>
       <c r="R60">
-        <v>280.01923076923072</v>
+        <v>225.79531249999997</v>
       </c>
       <c r="S60">
-        <v>314.28529411764708</v>
+        <v>233.77640449438209</v>
       </c>
       <c r="T60">
-        <v>276.54999999999995</v>
+        <v>251.29791666666662</v>
       </c>
       <c r="U60">
-        <v>230.73749999999998</v>
+        <v>188.15319148936169</v>
       </c>
       <c r="V60">
-        <v>210.15348837209302</v>
+        <v>175.30923076923077</v>
       </c>
       <c r="W60">
-        <v>202.34871794871796</v>
+        <v>192.52121212121219</v>
       </c>
     </row>
     <row r="61" spans="12:23" x14ac:dyDescent="0.25">
       <c r="L61">
-        <v>215.11450777202074</v>
+        <v>178.53210702341147</v>
       </c>
       <c r="M61">
-        <v>261.08906250000001</v>
+        <v>218.26454849498319</v>
       </c>
       <c r="N61">
-        <v>219.05663265306114</v>
+        <v>168.16711409395973</v>
       </c>
       <c r="O61">
-        <v>276.05161290322582</v>
+        <v>218.26521739130439</v>
       </c>
       <c r="P61">
-        <v>215.38947368421057</v>
+        <v>193.34871794871793</v>
       </c>
       <c r="Q61">
-        <v>227.67692307692309</v>
+        <v>179.07307692307691</v>
       </c>
       <c r="R61">
-        <v>259.24035087719295</v>
+        <v>228.42500000000001</v>
       </c>
       <c r="S61">
-        <v>274.50799999999992</v>
+        <v>241.6682926829269</v>
       </c>
       <c r="T61">
-        <v>307.95370370370375</v>
+        <v>254.4434782608696</v>
       </c>
       <c r="U61">
-        <v>217.51919191919197</v>
+        <v>174.75238095238097</v>
       </c>
       <c r="V61">
-        <v>210.00917431192673</v>
+        <v>166.46500000000009</v>
       </c>
       <c r="W61">
-        <v>208.63297872340436</v>
+        <v>175.36285714285714</v>
       </c>
     </row>
     <row r="62" spans="12:23" x14ac:dyDescent="0.25">
       <c r="L62">
-        <v>200.5362416107383</v>
+        <v>229.97986577181214</v>
       </c>
       <c r="M62">
-        <v>236.85574324324321</v>
+        <v>246.9637755102039</v>
       </c>
       <c r="N62">
-        <v>192.69797297297293</v>
+        <v>222.78104838709672</v>
       </c>
       <c r="O62">
-        <v>249.46799999999996</v>
+        <v>293.83589743589738</v>
       </c>
       <c r="P62">
-        <v>262.77222222222218</v>
+        <v>266.57017543859644</v>
       </c>
       <c r="Q62">
-        <v>264.06538461538463</v>
+        <v>250.17241379310343</v>
       </c>
       <c r="R62">
-        <v>270.01818181818186</v>
+        <v>264.26999999999992</v>
       </c>
       <c r="S62">
-        <v>245.16060606060609</v>
+        <v>267.78333333333342</v>
       </c>
       <c r="T62">
-        <v>261.80384615384617</v>
+        <v>293.45999999999998</v>
       </c>
       <c r="U62">
-        <v>209.66</v>
+        <v>238.47619047619048</v>
       </c>
       <c r="V62">
-        <v>204.06666666666666</v>
+        <v>222.16470588235282</v>
       </c>
       <c r="W62">
-        <v>212.06451612903223</v>
+        <v>230.57407407407408</v>
       </c>
     </row>
     <row r="63" spans="12:23" x14ac:dyDescent="0.25">
       <c r="L63">
-        <v>179.89424083769643</v>
+        <v>207.9260135135134</v>
       </c>
       <c r="M63">
-        <v>212.83432203389862</v>
+        <v>245.75876288659813</v>
       </c>
       <c r="N63">
-        <v>181.05360824742277</v>
+        <v>192.91304347826085</v>
       </c>
       <c r="O63">
-        <v>231.92424242424241</v>
+        <v>224.49999999999994</v>
       </c>
       <c r="P63">
-        <v>200.96419753086423</v>
+        <v>219.1</v>
       </c>
       <c r="Q63">
-        <v>182.1754385964912</v>
+        <v>250.23749999999995</v>
       </c>
       <c r="R63">
-        <v>210.4981481481482</v>
+        <v>280.01923076923072</v>
       </c>
       <c r="S63">
-        <v>239.40612244897957</v>
+        <v>314.28529411764708</v>
       </c>
       <c r="T63">
-        <v>249.85999999999996</v>
+        <v>276.54999999999995</v>
       </c>
       <c r="U63">
-        <v>184.58255813953491</v>
+        <v>230.73749999999998</v>
       </c>
       <c r="V63">
-        <v>183.36413043478257</v>
+        <v>210.15348837209302</v>
       </c>
       <c r="W63">
-        <v>178.66382978723402</v>
+        <v>202.34871794871796</v>
       </c>
     </row>
     <row r="64" spans="12:23" x14ac:dyDescent="0.25">
       <c r="L64">
-        <v>241.04874371859302</v>
+        <v>215.11450777202074</v>
       </c>
       <c r="M64">
-        <v>246.03857868020296</v>
+        <v>261.08906250000001</v>
       </c>
       <c r="N64">
-        <v>214.20761421319804</v>
+        <v>219.05663265306114</v>
       </c>
       <c r="O64">
-        <v>289.84736842105275</v>
+        <v>276.05161290322582</v>
       </c>
       <c r="P64">
-        <v>260.09906542056086</v>
+        <v>215.38947368421057</v>
       </c>
       <c r="Q64">
-        <v>237.42499999999998</v>
+        <v>227.67692307692309</v>
       </c>
       <c r="R64">
-        <v>270.404081632653</v>
+        <v>259.24035087719295</v>
       </c>
       <c r="S64">
-        <v>294.6587155963303</v>
+        <v>274.50799999999992</v>
       </c>
       <c r="T64">
-        <v>315.05084745762713</v>
+        <v>307.95370370370375</v>
       </c>
       <c r="U64">
-        <v>229.09545454545452</v>
+        <v>217.51919191919197</v>
       </c>
       <c r="V64">
-        <v>240.1105263157894</v>
+        <v>210.00917431192673</v>
       </c>
       <c r="W64">
-        <v>232.73495145631068</v>
+        <v>208.63297872340436</v>
       </c>
     </row>
     <row r="65" spans="12:23" x14ac:dyDescent="0.25">
       <c r="L65">
-        <v>172.28288288288289</v>
+        <v>233.59191919191926</v>
       </c>
       <c r="M65">
-        <v>229.38272058823526</v>
+        <v>237.68730964467002</v>
       </c>
       <c r="N65">
-        <v>185.99752321981435</v>
+        <v>221.90707070707066</v>
       </c>
       <c r="O65">
-        <v>279.88</v>
+        <v>325.18734177215202</v>
       </c>
       <c r="P65">
-        <v>223.6763157894737</v>
+        <v>261.93900000000002</v>
       </c>
       <c r="Q65">
-        <v>186.50952380952381</v>
+        <v>244.92666666666668</v>
       </c>
       <c r="R65">
-        <v>223.83200000000005</v>
+        <v>248.16125000000011</v>
       </c>
       <c r="S65">
-        <v>249.70645161290318</v>
+        <v>273.93846153846147</v>
       </c>
       <c r="T65">
-        <v>285.89999999999998</v>
+        <v>304.07580645161289</v>
       </c>
       <c r="U65">
-        <v>187.45333333333332</v>
+        <v>218.09157894736839</v>
       </c>
       <c r="V65">
-        <v>169.05454545454543</v>
+        <v>222.8134146341464</v>
       </c>
       <c r="W65">
-        <v>179.75609756097563</v>
+        <v>233.5063636363636</v>
       </c>
     </row>
     <row r="66" spans="12:23" x14ac:dyDescent="0.25">
       <c r="L66">
-        <v>230.81015228426398</v>
+        <v>200.5362416107383</v>
       </c>
       <c r="M66">
-        <v>249.25102040816319</v>
+        <v>236.85574324324321</v>
       </c>
       <c r="N66">
-        <v>224.63567839195991</v>
+        <v>192.69797297297293</v>
       </c>
       <c r="O66">
-        <v>268.61935483870968</v>
+        <v>249.46799999999996</v>
       </c>
       <c r="P66">
-        <v>239.82285714285715</v>
+        <v>262.77222222222218</v>
       </c>
       <c r="Q66">
-        <v>230.17500000000004</v>
+        <v>264.06538461538463</v>
       </c>
       <c r="R66">
-        <v>265.74864864864873</v>
+        <v>270.01818181818186</v>
       </c>
       <c r="S66">
-        <v>260.97749999999996</v>
+        <v>245.16060606060609</v>
       </c>
       <c r="T66">
-        <v>278.40441176470591</v>
+        <v>261.80384615384617</v>
       </c>
       <c r="U66">
-        <v>202.71</v>
+        <v>209.66</v>
       </c>
       <c r="V66">
-        <v>203.44285714285712</v>
+        <v>204.06666666666666</v>
       </c>
       <c r="W66">
-        <v>213.61263157894729</v>
+        <v>212.06451612903223</v>
       </c>
     </row>
     <row r="67" spans="12:23" x14ac:dyDescent="0.25">
       <c r="L67">
-        <v>211.53787878787878</v>
+        <v>179.89424083769643</v>
       </c>
       <c r="M67">
-        <v>233.30829015544046</v>
+        <v>212.83432203389862</v>
       </c>
       <c r="N67">
-        <v>195.63705583756342</v>
+        <v>181.05360824742277</v>
       </c>
       <c r="O67">
-        <v>231.21411764705883</v>
+        <v>231.92424242424241</v>
       </c>
       <c r="P67">
-        <v>196.8254716981132</v>
+        <v>200.96419753086423</v>
       </c>
       <c r="Q67">
-        <v>200.32166666666663</v>
+        <v>182.1754385964912</v>
       </c>
       <c r="R67">
-        <v>262.58750000000003</v>
+        <v>210.4981481481482</v>
       </c>
       <c r="S67">
-        <v>266.29313725490198</v>
+        <v>239.40612244897957</v>
       </c>
       <c r="T67">
-        <v>265.7129870129869</v>
+        <v>249.85999999999996</v>
       </c>
       <c r="U67">
-        <v>196.23173076923084</v>
+        <v>184.58255813953491</v>
       </c>
       <c r="V67">
-        <v>202.5238095238096</v>
+        <v>183.36413043478257</v>
       </c>
       <c r="W67">
-        <v>199.77281553398058</v>
+        <v>178.66382978723402</v>
       </c>
     </row>
     <row r="68" spans="12:23" x14ac:dyDescent="0.25">
       <c r="L68">
-        <v>192.79893048128326</v>
+        <v>241.04874371859302</v>
       </c>
       <c r="M68">
-        <v>247.67989690721654</v>
+        <v>246.03857868020296</v>
       </c>
       <c r="N68">
-        <v>189.95677083333325</v>
+        <v>214.20761421319804</v>
       </c>
       <c r="O68">
-        <v>347.74871794871802</v>
+        <v>289.84736842105275</v>
       </c>
       <c r="P68">
-        <v>250.45090909090914</v>
+        <v>260.09906542056086</v>
       </c>
       <c r="Q68">
-        <v>309.19333333333338</v>
+        <v>237.42499999999998</v>
       </c>
       <c r="R68">
-        <v>279.68965517241378</v>
+        <v>270.404081632653</v>
       </c>
       <c r="S68">
-        <v>302.81702127659571</v>
+        <v>294.6587155963303</v>
       </c>
       <c r="T68">
-        <v>295.47096774193557</v>
+        <v>315.05084745762713</v>
       </c>
       <c r="U68">
-        <v>204.98333333333332</v>
+        <v>229.09545454545452</v>
       </c>
       <c r="V68">
-        <v>213.30540540540537</v>
+        <v>240.1105263157894</v>
       </c>
       <c r="W68">
-        <v>221.8163636363636</v>
+        <v>232.73495145631068</v>
       </c>
     </row>
     <row r="69" spans="12:23" x14ac:dyDescent="0.25">
       <c r="L69">
-        <v>239.83484848484855</v>
+        <v>270.7246231155778</v>
       </c>
       <c r="M69">
-        <v>248.38906249999999</v>
+        <v>292.98367346938767</v>
       </c>
       <c r="N69">
-        <v>215.79333333333321</v>
+        <v>272.49346733668335</v>
       </c>
       <c r="O69">
-        <v>287.00000000000006</v>
+        <v>326.65714285714284</v>
       </c>
       <c r="P69">
-        <v>236.49148936170218</v>
+        <v>290.55363636363643</v>
       </c>
       <c r="Q69">
-        <v>246.7076923076923</v>
+        <v>290.88545454545454</v>
       </c>
       <c r="R69">
-        <v>255.41076923076929</v>
+        <v>326.49295774647896</v>
       </c>
       <c r="S69">
-        <v>271.27745098039213</v>
+        <v>353.14271844660192</v>
       </c>
       <c r="T69">
-        <v>301.54032258064507</v>
+        <v>348.81833333333333</v>
       </c>
       <c r="U69">
-        <v>212.34166666666667</v>
+        <v>300.21495327102798</v>
       </c>
       <c r="V69">
-        <v>218.12315789473686</v>
+        <v>261.57906976744192</v>
       </c>
       <c r="W69">
-        <v>223.91372549019613</v>
+        <v>284.40194174757272</v>
       </c>
     </row>
     <row r="70" spans="12:23" x14ac:dyDescent="0.25">
       <c r="L70">
-        <v>213.11717171717169</v>
+        <v>172.28288288288289</v>
       </c>
       <c r="M70">
-        <v>242.60482758620694</v>
+        <v>229.38272058823526</v>
       </c>
       <c r="N70">
-        <v>205.95187713310568</v>
+        <v>185.99752321981435</v>
       </c>
       <c r="O70">
-        <v>257.28571428571428</v>
+        <v>279.88</v>
       </c>
       <c r="P70">
-        <v>242.63947368421051</v>
+        <v>223.6763157894737</v>
       </c>
       <c r="Q70">
-        <v>225.10000000000005</v>
+        <v>186.50952380952381</v>
       </c>
       <c r="R70">
-        <v>247.90740740740733</v>
+        <v>223.83200000000005</v>
       </c>
       <c r="S70">
-        <v>270.4162162162163</v>
+        <v>249.70645161290318</v>
       </c>
       <c r="T70">
-        <v>252.73333333333335</v>
+        <v>285.89999999999998</v>
       </c>
       <c r="U70">
-        <v>220.99411764705886</v>
+        <v>187.45333333333332</v>
       </c>
       <c r="V70">
-        <v>215.58064516129036</v>
+        <v>169.05454545454543</v>
       </c>
       <c r="W70">
-        <v>199.44651162790694</v>
+        <v>179.75609756097563</v>
       </c>
     </row>
     <row r="71" spans="12:23" x14ac:dyDescent="0.25">
       <c r="L71">
-        <v>193.30558375634519</v>
+        <v>230.81015228426398</v>
       </c>
       <c r="M71">
-        <v>248.10306122448986</v>
+        <v>249.25102040816319</v>
       </c>
       <c r="N71">
-        <v>191.60600000000011</v>
+        <v>224.63567839195991</v>
       </c>
       <c r="O71">
-        <v>249.23846153846156</v>
+        <v>268.61935483870968</v>
       </c>
       <c r="P71">
-        <v>221.33714285714282</v>
+        <v>239.82285714285715</v>
       </c>
       <c r="Q71">
-        <v>206.73559322033898</v>
+        <v>230.17500000000004</v>
       </c>
       <c r="R71">
-        <v>260.04428571428565</v>
+        <v>265.74864864864873</v>
       </c>
       <c r="S71">
-        <v>286.33461538461546</v>
+        <v>260.97749999999996</v>
       </c>
       <c r="T71">
-        <v>298.64666666666665</v>
+        <v>278.40441176470591</v>
       </c>
       <c r="U71">
-        <v>207.48080808080806</v>
+        <v>202.71</v>
       </c>
       <c r="V71">
-        <v>197.69523809523807</v>
+        <v>203.44285714285712</v>
       </c>
       <c r="W71">
-        <v>196.59189189189186</v>
+        <v>213.61263157894729</v>
       </c>
     </row>
     <row r="72" spans="12:23" x14ac:dyDescent="0.25">
       <c r="L72">
-        <v>208.3743589743591</v>
+        <v>211.53787878787878</v>
       </c>
       <c r="M72">
-        <v>234.71145833333324</v>
+        <v>233.30829015544046</v>
       </c>
       <c r="N72">
-        <v>182.00103092783496</v>
+        <v>195.63705583756342</v>
       </c>
       <c r="O72">
-        <v>257.97205882352944</v>
+        <v>231.21411764705883</v>
       </c>
       <c r="P72">
-        <v>226.35104166666667</v>
+        <v>196.8254716981132</v>
       </c>
       <c r="Q72">
-        <v>222.04794520547941</v>
+        <v>200.32166666666663</v>
       </c>
       <c r="R72">
-        <v>248.79692307692306</v>
+        <v>262.58750000000003</v>
       </c>
       <c r="S72">
-        <v>256.89898989898995</v>
+        <v>266.29313725490198</v>
       </c>
       <c r="T72">
-        <v>276.38219178082181</v>
+        <v>265.7129870129869</v>
       </c>
       <c r="U72">
-        <v>200.35053763440862</v>
+        <v>196.23173076923084</v>
       </c>
       <c r="V72">
-        <v>196.84578313253007</v>
+        <v>202.5238095238096</v>
       </c>
       <c r="W72">
-        <v>197.75744680851074</v>
+        <v>199.77281553398058</v>
       </c>
     </row>
     <row r="73" spans="12:23" x14ac:dyDescent="0.25">
       <c r="L73">
-        <v>208.84247491638789</v>
+        <v>192.79893048128326</v>
       </c>
       <c r="M73">
-        <v>249.1336842105263</v>
+        <v>247.67989690721654</v>
       </c>
       <c r="N73">
-        <v>200.69795918367345</v>
+        <v>189.95677083333325</v>
       </c>
       <c r="O73">
-        <v>283.37</v>
+        <v>347.74871794871802</v>
       </c>
       <c r="P73">
-        <v>249.80689655172418</v>
+        <v>250.45090909090914</v>
       </c>
       <c r="Q73">
-        <v>207.57407407407408</v>
+        <v>309.19333333333338</v>
       </c>
       <c r="R73">
-        <v>243.91578947368424</v>
+        <v>279.68965517241378</v>
       </c>
       <c r="S73">
-        <v>321.82285714285712</v>
+        <v>302.81702127659571</v>
       </c>
       <c r="T73">
-        <v>316.04705882352943</v>
+        <v>295.47096774193557</v>
       </c>
       <c r="U73">
-        <v>209.46562499999999</v>
+        <v>204.98333333333332</v>
       </c>
       <c r="V73">
-        <v>208.76923076923075</v>
+        <v>213.30540540540537</v>
       </c>
       <c r="W73">
-        <v>226.50909090909093</v>
+        <v>221.8163636363636</v>
       </c>
     </row>
   </sheetData>
